--- a/data/hotels_by_city/Denver/Denver_shard_79.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_79.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g656236-d1145981-Reviews-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Park-Meadows.h890373.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1266 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r578586657-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>656236</t>
+  </si>
+  <si>
+    <t>1145981</t>
+  </si>
+  <si>
+    <t>578586657</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Traveler looking for adventure!</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel, it's clean, safe, comfortable, convenient to everything. The staff here is great, particularly Nathan. The owner is extremely receptive to customer concerns. Whether you're looking for short term or long term, I'd definitely recommend staying here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel, it's clean, safe, comfortable, convenient to everything. The staff here is great, particularly Nathan. The owner is extremely receptive to customer concerns. Whether you're looking for short term or long term, I'd definitely recommend staying here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r574063918-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>574063918</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Very helpful staff</t>
+  </si>
+  <si>
+    <t>Jessie was very helpful and professional. He made my stay at this property very enjoyable due to his positive attitude and willingness to go the extra mile for his customers. I will stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Jessie was very helpful and professional. He made my stay at this property very enjoyable due to his positive attitude and willingness to go the extra mile for his customers. I will stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r573002930-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>573002930</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Filthy room</t>
+  </si>
+  <si>
+    <t>So I stayed at the Extended Stay in Lone Tree over Easter. The room was dirty and there was really nothing but towel and a half a roll of toilet paper. When I used the shower it had not been cleaned well and there was a huge water bubble above the shower head that had been there some quit a while. I would never stay at this hotel again...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>So I stayed at the Extended Stay in Lone Tree over Easter. The room was dirty and there was really nothing but towel and a half a roll of toilet paper. When I used the shower it had not been cleaned well and there was a huge water bubble above the shower head that had been there some quit a while. I would never stay at this hotel again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r559330529-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>559330529</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Extended Home</t>
+  </si>
+  <si>
+    <t>I appreciate the sales pitch of looking for apartments in this very expensive Denver area and finding all of the amenities at a lower monthly rate here at my extended new home as I begin a new job. My dog is happy here too with the bright sunny windows. I even bought some plants to help it feel more like a home. I appreciate you more than you realize!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>I appreciate the sales pitch of looking for apartments in this very expensive Denver area and finding all of the amenities at a lower monthly rate here at my extended new home as I begin a new job. My dog is happy here too with the bright sunny windows. I even bought some plants to help it feel more like a home. I appreciate you more than you realize!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r554897497-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>554897497</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>front desk personnel make the experience</t>
+  </si>
+  <si>
+    <t>super professional and friendly front desk during check in and check out really made an ordinary business  trip fantastic  it is always nice to see a  friendly face when you are far from home and Extended Stay staff were greatMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded January 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2018</t>
+  </si>
+  <si>
+    <t>super professional and friendly front desk during check in and check out really made an ordinary business  trip fantastic  it is always nice to see a  friendly face when you are far from home and Extended Stay staff were greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r541387002-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>541387002</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended stay park meadows drive lone tree Colorado </t>
+  </si>
+  <si>
+    <t>I checked in this extended America at park meadows drive lone tree Colorado and Iam very much delighted to stay here.Everything was perfect to stay. Get to stay.Awesome one of the best I have seenAll best for future.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>I checked in this extended America at park meadows drive lone tree Colorado and Iam very much delighted to stay here.Everything was perfect to stay. Get to stay.Awesome one of the best I have seenAll best for future.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r528569442-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>528569442</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>They were very helpful, and would highly recommend them to anyone traveling for business.. Also great location! Were also very professional, and clean. Overall a nice, quiet, affordable, place to stay if you're traveling for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2017</t>
+  </si>
+  <si>
+    <t>They were very helpful, and would highly recommend them to anyone traveling for business.. Also great location! Were also very professional, and clean. Overall a nice, quiet, affordable, place to stay if you're traveling for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r525016507-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>525016507</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Stayed there just for a night. Even though it was short stay was good. Room was clean and tidy. Staffs were good. They provide grab and go breakfast with muffins  , coffee, oatmeal etc. It would be nice if they provide some breads for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed there just for a night. Even though it was short stay was good. Room was clean and tidy. Staffs were good. They provide grab and go breakfast with muffins  , coffee, oatmeal etc. It would be nice if they provide some breads for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r515940781-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>515940781</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>Stayed at Extended Stay America n Lone Tree CO with 3 dogs while house hunting and relocating to Denver area. Hotel was clean, staff was friendly and helpful, the area was full of restaurant and entertainment options yet quiet at night.  Would definitely recommend for long term stays.  Negatives: The tv channel options were very limited and the internet was slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at Extended Stay America n Lone Tree CO with 3 dogs while house hunting and relocating to Denver area. Hotel was clean, staff was friendly and helpful, the area was full of restaurant and entertainment options yet quiet at night.  Would definitely recommend for long term stays.  Negatives: The tv channel options were very limited and the internet was slow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r532509466-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>532509466</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Smelly and Dirty</t>
+  </si>
+  <si>
+    <t>Upon entering, it smelled like a smoking room but then I realized it was just musty and dirty. Hair found on washcloth. Surfaces were dirty. Even soap felt cheap and reused. Won't be visiting Extended Stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Upon entering, it smelled like a smoking room but then I realized it was just musty and dirty. Hair found on washcloth. Surfaces were dirty. Even soap felt cheap and reused. Won't be visiting Extended Stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r505866273-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>505866273</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>False advertising</t>
+  </si>
+  <si>
+    <t>Bed sheets were rough and the mattress like a board. We felt like we were getting bitten by bugs throughout the night. Very disappointed in Priceline comparing this to hotels like the Comfort Inn. We even called Priceline and they did nothing to rectify their false advertising. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Bed sheets were rough and the mattress like a board. We felt like we were getting bitten by bugs throughout the night. Very disappointed in Priceline comparing this to hotels like the Comfort Inn. We even called Priceline and they did nothing to rectify their false advertising. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r505341012-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>505341012</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>1st Stay</t>
+  </si>
+  <si>
+    <t>Overall, the experience was neutral. Room was clean, provided items needed if you were staying longer as the name suggested, Extended stay. Bed was very firm and the TV programming guide didn't match the channels.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Overall, the experience was neutral. Room was clean, provided items needed if you were staying longer as the name suggested, Extended stay. Bed was very firm and the TV programming guide didn't match the channels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r504072975-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>504072975</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Dirty and staff was MIA</t>
+  </si>
+  <si>
+    <t>Room was dirty and not cared for upon arrival.  The carpet had dirt on it and there was a significant amount of blood on the bathroom door frame.  The exterior doors were not secured.  I would not recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Room was dirty and not cared for upon arrival.  The carpet had dirt on it and there was a significant amount of blood on the bathroom door frame.  The exterior doors were not secured.  I would not recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r503381408-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>503381408</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay while relocating</t>
+  </si>
+  <si>
+    <t>With the upcoming week, we will have stayed here three full weeks and the stay has been pleasant. I don't like grab and go breakfast but there are ample choices for places to eat in the area. A huge mall is only a quarter mile away.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>With the upcoming week, we will have stayed here three full weeks and the stay has been pleasant. I don't like grab and go breakfast but there are ample choices for places to eat in the area. A huge mall is only a quarter mile away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r500125340-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>500125340</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>This is a good place to stay</t>
+  </si>
+  <si>
+    <t>We were very pleased with cleanliness, size of the room, and service at this hotel. I would like for them to include a regular breakfast instead of grab and go but that's no big deal with all the nearby restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>We were very pleased with cleanliness, size of the room, and service at this hotel. I would like for them to include a regular breakfast instead of grab and go but that's no big deal with all the nearby restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r499036391-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>499036391</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>visit from Reno, NV</t>
+  </si>
+  <si>
+    <t>not impressed for the amount of $$$ I spent - will not stay there or any other Extended Stay facility - my family stayed @ other venues for much less w/better service &amp; a full breakfast included - the room stank from the prior guests (I think) the staff was nice but the overall room was not to my satisfactionMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>not impressed for the amount of $$$ I spent - will not stay there or any other Extended Stay facility - my family stayed @ other venues for much less w/better service &amp; a full breakfast included - the room stank from the prior guests (I think) the staff was nice but the overall room was not to my satisfactionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r496708038-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>496708038</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Left...Never again</t>
+  </si>
+  <si>
+    <t>First...Ginger greeted me with a warm smile and was very friendly. I got to the room and started to unpack, when I sat on the bed I thought this has to be the hardest bed ever, after investigating more I realized the mattress was upside down, I was sitting on springs from the mattress, so I called down to speak to Ginger again, advised that I could not get connected on the internet and that the mattress needed to be flipped. She came right up, once we removed the bedding (thin sheets, rough blanket and a very thin bedspread there was a hospital looking mattress pad covering up Urine stains on the bottom of the mattress (spring side) we flipped it and the entire mattress top material was ripped, old mattress, we re made the bed and as I sat there I decided that there was no way I could sleep on that, the thought of the urine stains and god knows what else was on it, I zipped up the luggage and booked it to a new hotel just up the road about 15 minutes. I understand that these are not 5 star hotels, but the lack of care that this franchise or corporate owned business is unacceptable! I just needed a room for the night for a business trip, at 145.00 a night 160 something with tax, they should at least have better quality bedding. Shame on this...First...Ginger greeted me with a warm smile and was very friendly. I got to the room and started to unpack, when I sat on the bed I thought this has to be the hardest bed ever, after investigating more I realized the mattress was upside down, I was sitting on springs from the mattress, so I called down to speak to Ginger again, advised that I could not get connected on the internet and that the mattress needed to be flipped. She came right up, once we removed the bedding (thin sheets, rough blanket and a very thin bedspread there was a hospital looking mattress pad covering up Urine stains on the bottom of the mattress (spring side) we flipped it and the entire mattress top material was ripped, old mattress, we re made the bed and as I sat there I decided that there was no way I could sleep on that, the thought of the urine stains and god knows what else was on it, I zipped up the luggage and booked it to a new hotel just up the road about 15 minutes. I understand that these are not 5 star hotels, but the lack of care that this franchise or corporate owned business is unacceptable! I just needed a room for the night for a business trip, at 145.00 a night 160 something with tax, they should at least have better quality bedding. Shame on this business! I did call back tonight after I left to tell Ginger how sweet she was and how she deserves to work for a company that takes  pride in their business like she takes pride in her job and customer service! I would love the owners to sleep one night on a urine stained mattress and sleep good! Never again Extended stay..never againMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>First...Ginger greeted me with a warm smile and was very friendly. I got to the room and started to unpack, when I sat on the bed I thought this has to be the hardest bed ever, after investigating more I realized the mattress was upside down, I was sitting on springs from the mattress, so I called down to speak to Ginger again, advised that I could not get connected on the internet and that the mattress needed to be flipped. She came right up, once we removed the bedding (thin sheets, rough blanket and a very thin bedspread there was a hospital looking mattress pad covering up Urine stains on the bottom of the mattress (spring side) we flipped it and the entire mattress top material was ripped, old mattress, we re made the bed and as I sat there I decided that there was no way I could sleep on that, the thought of the urine stains and god knows what else was on it, I zipped up the luggage and booked it to a new hotel just up the road about 15 minutes. I understand that these are not 5 star hotels, but the lack of care that this franchise or corporate owned business is unacceptable! I just needed a room for the night for a business trip, at 145.00 a night 160 something with tax, they should at least have better quality bedding. Shame on this...First...Ginger greeted me with a warm smile and was very friendly. I got to the room and started to unpack, when I sat on the bed I thought this has to be the hardest bed ever, after investigating more I realized the mattress was upside down, I was sitting on springs from the mattress, so I called down to speak to Ginger again, advised that I could not get connected on the internet and that the mattress needed to be flipped. She came right up, once we removed the bedding (thin sheets, rough blanket and a very thin bedspread there was a hospital looking mattress pad covering up Urine stains on the bottom of the mattress (spring side) we flipped it and the entire mattress top material was ripped, old mattress, we re made the bed and as I sat there I decided that there was no way I could sleep on that, the thought of the urine stains and god knows what else was on it, I zipped up the luggage and booked it to a new hotel just up the road about 15 minutes. I understand that these are not 5 star hotels, but the lack of care that this franchise or corporate owned business is unacceptable! I just needed a room for the night for a business trip, at 145.00 a night 160 something with tax, they should at least have better quality bedding. Shame on this business! I did call back tonight after I left to tell Ginger how sweet she was and how she deserves to work for a company that takes  pride in their business like she takes pride in her job and customer service! I would love the owners to sleep one night on a urine stained mattress and sleep good! Never again Extended stay..never againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r492625316-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>492625316</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Clean but disappointing "breakfast"</t>
+  </si>
+  <si>
+    <t>Free breakfast was disappointing as only had coffee, granola bars and tiny muffins as their free breakfast... No juice or milk for kids. Would rather spent few more dollars at a different hotel that had a real breakfast as eggs, bacon, waffles, fruit, yogurt,  bagels,  muffins/ pastries,  cereal and oatmeal along with coffee.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Free breakfast was disappointing as only had coffee, granola bars and tiny muffins as their free breakfast... No juice or milk for kids. Would rather spent few more dollars at a different hotel that had a real breakfast as eggs, bacon, waffles, fruit, yogurt,  bagels,  muffins/ pastries,  cereal and oatmeal along with coffee.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r489470877-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>489470877</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>GREAT STAY AMERICA!</t>
+  </si>
+  <si>
+    <t>An amazing place to stay! Great location, respectful staff, clean enviroment. I am enjoying my syay here very much. I have been here for 2 months already and have 2 more relaxing months to go. My boss could not have found a better location for me to stay during this project! Everything is nearby with the lightrail right around the corner. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>An amazing place to stay! Great location, respectful staff, clean enviroment. I am enjoying my syay here very much. I have been here for 2 months already and have 2 more relaxing months to go. My boss could not have found a better location for me to stay during this project! Everything is nearby with the lightrail right around the corner. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r488850216-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>488850216</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Ginger was absolutely wonderful, very help. She understood my concerns and took care of making sure I felt comfortable and safe. If you stay at this location make sure to request her to help with all your needs. The sweetest and kindest woman working at the extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Ginger was absolutely wonderful, very help. She understood my concerns and took care of making sure I felt comfortable and safe. If you stay at this location make sure to request her to help with all your needs. The sweetest and kindest woman working at the extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r488796366-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>488796366</t>
+  </si>
+  <si>
+    <t>double booked hotel with bad service</t>
+  </si>
+  <si>
+    <t>First of all my room was double booked, even though that I booked my room by calling the hotel directly on the hotel phone number. I didnt book through any third party and yet, the room was double booked.Second, even though the hotel knew that they dont have any rooms available , no one called me to cancel my reservation, and they waited until i showed up to tell me that they dont have roomsThird, The front desk told me to check with other hotels, and didnt offer transportation and calling the other hotels themselves, even thought it is the hotel fault not mine, finding me a room in another hotel is the least i would expect.Fourth, I called the manager and after 40 minutes he managed to find me a room in the extended stay hotel, so I didnt have to leave. when I went to the room, I found I dirty sport on the bed sheet !!!At the end of the my stay, I would have expected some kind of discount or credit back, as a way to apologize for the time wasted and the poor service, but nothing happened.Last, The hotel offers some quick snacks for breakfast, but i went for breakfast during breakfast hours, I found that the hotel ran out of muffins, and cereal !!!I WILL DEFINTELY NOT STAY IN THIS HOTEL EVER AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>First of all my room was double booked, even though that I booked my room by calling the hotel directly on the hotel phone number. I didnt book through any third party and yet, the room was double booked.Second, even though the hotel knew that they dont have any rooms available , no one called me to cancel my reservation, and they waited until i showed up to tell me that they dont have roomsThird, The front desk told me to check with other hotels, and didnt offer transportation and calling the other hotels themselves, even thought it is the hotel fault not mine, finding me a room in another hotel is the least i would expect.Fourth, I called the manager and after 40 minutes he managed to find me a room in the extended stay hotel, so I didnt have to leave. when I went to the room, I found I dirty sport on the bed sheet !!!At the end of the my stay, I would have expected some kind of discount or credit back, as a way to apologize for the time wasted and the poor service, but nothing happened.Last, The hotel offers some quick snacks for breakfast, but i went for breakfast during breakfast hours, I found that the hotel ran out of muffins, and cereal !!!I WILL DEFINTELY NOT STAY IN THIS HOTEL EVER AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r481455149-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>481455149</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>This hotel was cheaper than other hotels in the area, and I now understand why.  The hallway looked as though it hadn't been vacuumed in months. The first room I was put in, the door did not close all the way, but the front desk was accommodating and got me into a new room.  The breakfast is the bare minimum with just granola bars, muffins, and coffee.  On my second day, the breakfast was not ready at 6:00am (when they say it starts).  Around 6:05, the woman at the front desk asked if I needed anything, and I stated I was simply waiting for the breakfast and coffee, to which she replied "Oh, it won't be ready for awhile."  This was frustrating, since I did not have time to wait, and the rooms also don't have coffee makers, so I had to go without my morning cup of coffee.  It wasn't so terrible that I would never stay again, but I also wouldn't recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was cheaper than other hotels in the area, and I now understand why.  The hallway looked as though it hadn't been vacuumed in months. The first room I was put in, the door did not close all the way, but the front desk was accommodating and got me into a new room.  The breakfast is the bare minimum with just granola bars, muffins, and coffee.  On my second day, the breakfast was not ready at 6:00am (when they say it starts).  Around 6:05, the woman at the front desk asked if I needed anything, and I stated I was simply waiting for the breakfast and coffee, to which she replied "Oh, it won't be ready for awhile."  This was frustrating, since I did not have time to wait, and the rooms also don't have coffee makers, so I had to go without my morning cup of coffee.  It wasn't so terrible that I would never stay again, but I also wouldn't recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r476915529-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>476915529</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Comfortable room and fantastic location!</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple of times now; one night each time. Ginger was very welcoming and let me know of the amenities available. The beds are comfortable, the location quiet (no freeway noises), and the room temp can be easily regulated (either warmer or cooler as you like for sleeping). The price and location can't be beat. This hotel is near a movie complex and some good restaurants. Love that there's a Panera and gas station nearby, plus easy access to I-25!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple of times now; one night each time. Ginger was very welcoming and let me know of the amenities available. The beds are comfortable, the location quiet (no freeway noises), and the room temp can be easily regulated (either warmer or cooler as you like for sleeping). The price and location can't be beat. This hotel is near a movie complex and some good restaurants. Love that there's a Panera and gas station nearby, plus easy access to I-25!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r473901932-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>473901932</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Best budget place to stay!</t>
+  </si>
+  <si>
+    <t>I moved into the US just recently and needed a place to stay until my apartment lease is through. This place is a the best place to stay within budget. Rooms are clean and staff are very friendly. Ginger is my favorite person here and thanks for all her help.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>I moved into the US just recently and needed a place to stay until my apartment lease is through. This place is a the best place to stay within budget. Rooms are clean and staff are very friendly. Ginger is my favorite person here and thanks for all her help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r457658333-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>457658333</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms and wonderful staff!</t>
+  </si>
+  <si>
+    <t>I checked in Friday with my family and was delighted to see a nice clean and friendly environment. The staff was extremely accommodating and friendly. The only issue was there was a lot of activity going on in the halls that night and looked like a bunch of drug addicts roaming the ground and second floor. I did not feel comfortable letting my child walk to the vending or outside by himself. As we left the property for the day on Saturday , we noticed police officers all around the building and saw they had detained the guests that were wandering the halls the night before. The front desk staff handled everything well and very professionally which made it better, and assured us that the issue was being taken care of. Another employee named Jessie was dealing with everything that was going on and still managed to  help us with some of our belongings. With guys like him around, my son said he felt more at ease and safe. Thanks again to the staff that was able to fix this problem before it escalated. Its nice to know that the employees care enough to go above and beyond to make sure that the guests in Park Meadows stay safe!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>I checked in Friday with my family and was delighted to see a nice clean and friendly environment. The staff was extremely accommodating and friendly. The only issue was there was a lot of activity going on in the halls that night and looked like a bunch of drug addicts roaming the ground and second floor. I did not feel comfortable letting my child walk to the vending or outside by himself. As we left the property for the day on Saturday , we noticed police officers all around the building and saw they had detained the guests that were wandering the halls the night before. The front desk staff handled everything well and very professionally which made it better, and assured us that the issue was being taken care of. Another employee named Jessie was dealing with everything that was going on and still managed to  help us with some of our belongings. With guys like him around, my son said he felt more at ease and safe. Thanks again to the staff that was able to fix this problem before it escalated. Its nice to know that the employees care enough to go above and beyond to make sure that the guests in Park Meadows stay safe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r455940095-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>455940095</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Jessie was so helpful</t>
+  </si>
+  <si>
+    <t>We travel to Lone Tree monthly and stay here often. The location is great-walking distance to theater and many restaurants.  Very close to RMCC and Skyridge Hosp. Definitely no frills but staff and location is great   Jessie went above and beyond to help us.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>We travel to Lone Tree monthly and stay here often. The location is great-walking distance to theater and many restaurants.  Very close to RMCC and Skyridge Hosp. Definitely no frills but staff and location is great   Jessie went above and beyond to help us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r454138297-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>454138297</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Beautiful place to stay.</t>
+  </si>
+  <si>
+    <t>Extremely friendly staff. Good to walk into a place to see a smiling face, Ginger from the front desk provided us with plenty of information as far as restaurants and store locations in the area. She was very professional but made us feel very welcome and comfortable. As well as offering us any over night amenities needed. Good wifi connection and television channels. Would recommend to anyone. Happy with our choice in hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Extremely friendly staff. Good to walk into a place to see a smiling face, Ginger from the front desk provided us with plenty of information as far as restaurants and store locations in the area. She was very professional but made us feel very welcome and comfortable. As well as offering us any over night amenities needed. Good wifi connection and television channels. Would recommend to anyone. Happy with our choice in hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r444907097-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>444907097</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Everyone at the front desk is great, especially Amber. She shows a level of professionalism that is hard to find these days. We are staying for a long period of time and are greatly enjoying our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Everyone at the front desk is great, especially Amber. She shows a level of professionalism that is hard to find these days. We are staying for a long period of time and are greatly enjoying our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r444465006-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>444465006</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>A home away from home</t>
+  </si>
+  <si>
+    <t>The staff here is excellent! Especially Priscilla, Flor, Ginger and Jeff. They each resolve any problems you have as soon as you tell them. The room was great! Breakfast could be improved by adding some items but overall my favorite place to stay when I am in Denver. I would recommend to anyone who is looking for a place to stay. Your staff here is what makes this place amazing! MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff here is excellent! Especially Priscilla, Flor, Ginger and Jeff. They each resolve any problems you have as soon as you tell them. The room was great! Breakfast could be improved by adding some items but overall my favorite place to stay when I am in Denver. I would recommend to anyone who is looking for a place to stay. Your staff here is what makes this place amazing! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r443389172-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>443389172</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>The Best Service Ever!</t>
+  </si>
+  <si>
+    <t>The staff was awesome! Ginger, Brian, Priscilla, Jeff, Dusty, Amber, and JocaBeth.If I missed anyone sorry, everyone did an excellent job to service us and our needs. Always fresh towels and supplies. Friendly team who works hard to meet customers needs. We stayed at Park Meadows for 23 nights. The maids were awesome too. Always friendly and helpful. Excellent Service, I would recommend this Park Meadows Extended stay to my friends and family anytime.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>The staff was awesome! Ginger, Brian, Priscilla, Jeff, Dusty, Amber, and JocaBeth.If I missed anyone sorry, everyone did an excellent job to service us and our needs. Always fresh towels and supplies. Friendly team who works hard to meet customers needs. We stayed at Park Meadows for 23 nights. The maids were awesome too. Always friendly and helpful. Excellent Service, I would recommend this Park Meadows Extended stay to my friends and family anytime.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r436485492-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>436485492</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>The staff here are very friendly. Very understanding and accommodating to my needs as well. I will enjoy staying here. I first arrived and had no idea how lo g i would stay . The young lady at the front Priscilla explained to me all of the specials. And answered all of my questions without hesitation. Also she explained to me a few different ways to save money during my stay and even explained to me the specials that extended stay offered. I now have an extended stay account and will continue to use them. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>The staff here are very friendly. Very understanding and accommodating to my needs as well. I will enjoy staying here. I first arrived and had no idea how lo g i would stay . The young lady at the front Priscilla explained to me all of the specials. And answered all of my questions without hesitation. Also she explained to me a few different ways to save money during my stay and even explained to me the specials that extended stay offered. I now have an extended stay account and will continue to use them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r432262781-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>432262781</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Keeps it simple</t>
+  </si>
+  <si>
+    <t>Very nice place to land if you have to stay awhile. Rooms are clean and simple with full kitchen.They were awesome when our Expedia reservation came up missing. They did their best to make it right and keep the situation positive at the end of a very rough day. Next to Park Meadow Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Very nice place to land if you have to stay awhile. Rooms are clean and simple with full kitchen.They were awesome when our Expedia reservation came up missing. They did their best to make it right and keep the situation positive at the end of a very rough day. Next to Park Meadow Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r431336375-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>431336375</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great for a few nights for the price!</t>
+  </si>
+  <si>
+    <t>I only stayed a few nights here however, the service and staff were very nice and professional. I booked online and saved an extra 5% on my stay plus filled out the hotel information to save time at check-in. Anything I needed like extra pillows and soap was provided. All the staff was very welcoming, which is a big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>I only stayed a few nights here however, the service and staff were very nice and professional. I booked online and saved an extra 5% on my stay plus filled out the hotel information to save time at check-in. Anything I needed like extra pillows and soap was provided. All the staff was very welcoming, which is a big deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r402449366-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>402449366</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Location and the Staff are the Best, Park Meadows</t>
+  </si>
+  <si>
+    <t>Park Meadows is the Best.  It's located in the Entertainment District and in walking distance to everything you need without having to drive your vehicle.  Room are nice and up-to-date. My only complaint is the internet connection speed for my Soft Phone software could be better and also more fresh scent in the hallways.  Other than that, this facility is really nice. I chose the 4th Floor room 416 and have been here for over a year because of Traveling and have full confidence that when I'm away, my things are safe.   Couldn't be in better hands.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Park Meadows is the Best.  It's located in the Entertainment District and in walking distance to everything you need without having to drive your vehicle.  Room are nice and up-to-date. My only complaint is the internet connection speed for my Soft Phone software could be better and also more fresh scent in the hallways.  Other than that, this facility is really nice. I chose the 4th Floor room 416 and have been here for over a year because of Traveling and have full confidence that when I'm away, my things are safe.   Couldn't be in better hands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r390365830-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>390365830</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Univ. of CO. surgery center, Park Meadows</t>
+  </si>
+  <si>
+    <t>The location of this hotel is excellent. The price is very competitive. It is important to understand what you get and don't get so you won't be disappointed. If you want a room to stay and cook in with wifi and a friendly staff this is it.  What you don't get:  ice machine, exercise room, business center, business channels on the TV, the coffee pot that comes with the room is inadequate and bring quarters for the laundry machines.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>The location of this hotel is excellent. The price is very competitive. It is important to understand what you get and don't get so you won't be disappointed. If you want a room to stay and cook in with wifi and a friendly staff this is it.  What you don't get:  ice machine, exercise room, business center, business channels on the TV, the coffee pot that comes with the room is inadequate and bring quarters for the laundry machines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r382553681-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>382553681</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Very good facility</t>
+  </si>
+  <si>
+    <t>This is an Extended Stay hotel and so is well suited for guests who want to stay longer than just a few nights. It has a kitchenette, which is what we need. For the price, it is a very good deal. It is no-frills but that's how we like it.Friendly staff! We put up with a few inconveniences because of the excellent staff.I wish the front door had an automatic door open feature because it is heavy.We have stayed there many times over the years and will do so again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>This is an Extended Stay hotel and so is well suited for guests who want to stay longer than just a few nights. It has a kitchenette, which is what we need. For the price, it is a very good deal. It is no-frills but that's how we like it.Friendly staff! We put up with a few inconveniences because of the excellent staff.I wish the front door had an automatic door open feature because it is heavy.We have stayed there many times over the years and will do so again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r371861129-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>371861129</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Long-Term Stay outside of Denver, Colorado was pleasant</t>
+  </si>
+  <si>
+    <t>This location is in walking distance to lots of restaurants and the light rail service.  The light rail is all uphill, so carrying luggage won't be easy. It's less than 0.25 miles from hotel. The hotel has a liberal pet policy but if you don't like pets and can't stand pet hair, then you'll likely not like this hotel. IF you can get beyond that like I did, the hotel was very comfy and saved me a GReat deal of money in food costs since I could cook in my room. I was enrolled at the University of Phoenix building for Medical Sales College. 2nd floor is convenient for using stairs as the elevator can be quite slow. Facing the front of the hotel building gives you a great view of the mountains beyond. DO NOT expect a nice breakfast. It's just granola bars, oranges, packaged muffins and coffee. No juices.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This location is in walking distance to lots of restaurants and the light rail service.  The light rail is all uphill, so carrying luggage won't be easy. It's less than 0.25 miles from hotel. The hotel has a liberal pet policy but if you don't like pets and can't stand pet hair, then you'll likely not like this hotel. IF you can get beyond that like I did, the hotel was very comfy and saved me a GReat deal of money in food costs since I could cook in my room. I was enrolled at the University of Phoenix building for Medical Sales College. 2nd floor is convenient for using stairs as the elevator can be quite slow. Facing the front of the hotel building gives you a great view of the mountains beyond. DO NOT expect a nice breakfast. It's just granola bars, oranges, packaged muffins and coffee. No juices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r350416933-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>350416933</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Tempory home</t>
+  </si>
+  <si>
+    <t>Staying here at extended stay park meadows has hands down shown the most hospitality with out a doubt in my mind most definitely gone out of their way to make sure that hospitality was provided. The staff here is always going over and beyoud the expectations. I know that it is not easy giving A-1  service to each and every customer/guest but they make it look like it is second nature. Park meadows extended stay i would recommend to anyone that is coming to stay in the area it is even worth going out of your way a lil if you want a home away from home. Thank you for the stay look forward to doing buisness with you in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Staying here at extended stay park meadows has hands down shown the most hospitality with out a doubt in my mind most definitely gone out of their way to make sure that hospitality was provided. The staff here is always going over and beyoud the expectations. I know that it is not easy giving A-1  service to each and every customer/guest but they make it look like it is second nature. Park meadows extended stay i would recommend to anyone that is coming to stay in the area it is even worth going out of your way a lil if you want a home away from home. Thank you for the stay look forward to doing buisness with you in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r342885979-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>342885979</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Excellent &amp; enjoyable stay</t>
+  </si>
+  <si>
+    <t>I stayed in this Hotel during my visit to Golden, CO and had a very pleasant and enjoyable experience.  The location was great with restaurants around, AMC movie theater and a Mall close by.  The staff were friendly and the Price was amazingly reasonable.  But one of the staff members JACKIE SKATES rendered exceptional service, beyond the call of duty!  I would HIGHLY RECOMMEND this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this Hotel during my visit to Golden, CO and had a very pleasant and enjoyable experience.  The location was great with restaurants around, AMC movie theater and a Mall close by.  The staff were friendly and the Price was amazingly reasonable.  But one of the staff members JACKIE SKATES rendered exceptional service, beyond the call of duty!  I would HIGHLY RECOMMEND this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r326252857-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>326252857</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Not The Best</t>
+  </si>
+  <si>
+    <t>We checked in to this hotel because it was in the area in which we were traveling.  Upon trying to check in, there were no queen bedrooms.  After many, many minutes and a phone call to a supervisor, we were assigned a king bed room on ground floor which we wanted.    The room was clean for the most part.  We had to hang the spare roll of toilet paper ourselves.  It looked as though workmen of some type had been in the room and used the facilities but who knows? And we were exhausted so we stayed.  The bed was wonderful.  This place is in the older style longer stay rooms.  Each light is manually turned on with the little knob and the heater/air conditioner unit does not give you a temp reading so you need to kind of hit and miss to get the room the correct temperature.  There is no blow dryer in the room so I needed to go to the front desk and borrow one.    Overall, this is a bit worn and dated but adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We checked in to this hotel because it was in the area in which we were traveling.  Upon trying to check in, there were no queen bedrooms.  After many, many minutes and a phone call to a supervisor, we were assigned a king bed room on ground floor which we wanted.    The room was clean for the most part.  We had to hang the spare roll of toilet paper ourselves.  It looked as though workmen of some type had been in the room and used the facilities but who knows? And we were exhausted so we stayed.  The bed was wonderful.  This place is in the older style longer stay rooms.  Each light is manually turned on with the little knob and the heater/air conditioner unit does not give you a temp reading so you need to kind of hit and miss to get the room the correct temperature.  There is no blow dryer in the room so I needed to go to the front desk and borrow one.    Overall, this is a bit worn and dated but adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r321274938-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>321274938</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>one of the Worst hotels I ever stayed in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone didn't work, had to physically go to the front desk every timecockroachesdirty towels in room when I got thereno amenities in the hotel not clean dirty, dirty, not good inconvenient location, not </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r321215102-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>321215102</t>
+  </si>
+  <si>
+    <t>"I found this property to be a diamond in the rough"</t>
+  </si>
+  <si>
+    <t>I read many reviews of potential hotels to stay in Denver and chose Extended Stay America in Park Meadow. It seems there are a lot of complainers out there but this property had a very nice area that has almost everything within a small vicinity and the staff starting with the GM were very kind. They were engaged with my needs and came through almost every time. I would recommend this hotel to anyone although I would like to see the rooms with as little to no carpet at all in order to have cleaner interior environment.   : )</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r309636868-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>309636868</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 nights visiting familyThe hotel needs updating in fixtures and particularly the bathroom my niche had no dishes or pots and pans not even glasses for water or cups for coffee.Location is the best assetThe free wifi is ultra slow and if you need more speed it is extraMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 nights visiting familyThe hotel needs updating in fixtures and particularly the bathroom my niche had no dishes or pots and pans not even glasses for water or cups for coffee.Location is the best assetThe free wifi is ultra slow and if you need more speed it is extraMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r309286646-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>309286646</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Not what we expected.....</t>
+  </si>
+  <si>
+    <t>I thought that since this hotel is in a nice neighborhood and looks nice from the outside that it would be a good place to stay when we were in transition between house closings... I was wrong.  It smells of uncleanliness and other things.. It may have been "recently" renovated, but that means nothing if it is not kept clean. There is an "element" hanging around the hotel that is sketchy at best.  It is supposed to be non-smoking but no one seems to pay attention that.  We asked for someone to come and help us with a window that was stuck open, but that never happened.  Our bathroom smelled, even after it was cleaned.  Overall, management doesn't care, and it is obvious.  Not enough staff, and the staff they have seems like they would rather be anywhere else. I would never recommend anyone to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>I thought that since this hotel is in a nice neighborhood and looks nice from the outside that it would be a good place to stay when we were in transition between house closings... I was wrong.  It smells of uncleanliness and other things.. It may have been "recently" renovated, but that means nothing if it is not kept clean. There is an "element" hanging around the hotel that is sketchy at best.  It is supposed to be non-smoking but no one seems to pay attention that.  We asked for someone to come and help us with a window that was stuck open, but that never happened.  Our bathroom smelled, even after it was cleaned.  Overall, management doesn't care, and it is obvious.  Not enough staff, and the staff they have seems like they would rather be anywhere else. I would never recommend anyone to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r300937607-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>300937607</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>No room at the inn...</t>
+  </si>
+  <si>
+    <t>My husband called the hotel and booked a room for us for one night. He used a credit card to hold the room.  When we arrived to check in, we were told that they were overbooked and our reservation had been moved to their sister hotel down the road.  When we got to the other hotel, we were not in their system and the man at the front desk had to check a room to make sure it was ready.  My husband asked about a discount for the inconvenience, they only took $10 off the rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>My husband called the hotel and booked a room for us for one night. He used a credit card to hold the room.  When we arrived to check in, we were told that they were overbooked and our reservation had been moved to their sister hotel down the road.  When we got to the other hotel, we were not in their system and the man at the front desk had to check a room to make sure it was ready.  My husband asked about a discount for the inconvenience, they only took $10 off the rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r296367818-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>296367818</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Stay is very unhelpful, they really just do not care.</t>
+  </si>
+  <si>
+    <t>I have no idea how the rooms are , because I was a lucky winner of this hotel being over booked. They told me it happens all the time and just walked off, I had to ask for a cancellation receipt so they don't change me for a stay that didn't take place , or a non check in charge. This took a while as the staff walked off and I had to interrupt them to get it. I have had over booking before , they come with traveling, and it doesn't happen often. Every time it has happened the hotel tries to help me with another hotel, or at the very least answer any question I may have , I have never had someone just tell me , sorry we are over booked and just walk around the corner so I can barely see them. Just bad customer service. I ended up at the Marriott around the corner which was 15.00 more and had a bar , a Starbucks, restaurant and a staff that is helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I have no idea how the rooms are , because I was a lucky winner of this hotel being over booked. They told me it happens all the time and just walked off, I had to ask for a cancellation receipt so they don't change me for a stay that didn't take place , or a non check in charge. This took a while as the staff walked off and I had to interrupt them to get it. I have had over booking before , they come with traveling, and it doesn't happen often. Every time it has happened the hotel tries to help me with another hotel, or at the very least answer any question I may have , I have never had someone just tell me , sorry we are over booked and just walk around the corner so I can barely see them. Just bad customer service. I ended up at the Marriott around the corner which was 15.00 more and had a bar , a Starbucks, restaurant and a staff that is helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r292855485-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>292855485</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>a friend came into town unexpectedly, found a room here.  A bit out of the way from the house but super convenient to get to, staff was super professional and over the top crazy friendly.  room was uber clean and well appointedMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>a friend came into town unexpectedly, found a room here.  A bit out of the way from the house but super convenient to get to, staff was super professional and over the top crazy friendly.  room was uber clean and well appointedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r291268907-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>291268907</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>BED BUGS ALL OVER</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for about a week on the last day I woke up with 30 bite's on my body.Found dead bedbugs in the sheets that I had killed when I was sleeping.Also found some crawling around on the sheets.Tried to talk to the GM I think her name was Dinah.She told me she was new and she wasn't sure what to do YOUR THE GM do your job.The first time I tried to talk to her she was nowhere to be found at 10am in the morning they said she was not in yet.She also said she would contact me back still have not heard from her GREAT GM she is.All I have to say is do not stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for about a week on the last day I woke up with 30 bite's on my body.Found dead bedbugs in the sheets that I had killed when I was sleeping.Also found some crawling around on the sheets.Tried to talk to the GM I think her name was Dinah.She told me she was new and she wasn't sure what to do YOUR THE GM do your job.The first time I tried to talk to her she was nowhere to be found at 10am in the morning they said she was not in yet.She also said she would contact me back still have not heard from her GREAT GM she is.All I have to say is do not stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r262564129-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>262564129</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Convenient place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and the hotel was pretty good. The service at the front desk was great, everyone was very friendly. When we needed something brought to the room they were quick to deliver it. The room was okay for the most part. The mattress and pillows were not comfortable at all. Rough mattress and very thin pillows. The TV had very few channels. The room and bathroom were clean though. The towels were rough and felt more like sandpaper. The shower head was powerful and the water stayed warm for a long time. The wifi wasn't the best. When it did connect it was very slow. Some of time it would take too long to connect. The hotel seemed pretty clean inside and out. The parking lot was maintained well. The elevators were fast, we stayed on the fourth floor and never had to wait more than 30 seconds. The breakfast was simple, just coffee and tea, oranges and granola bars. The hotel is in a very convenient area, close to many restaurants, the movie theater and bowling alley all within walking distance. It wasn't noisy at all, even being right off I-25. We would probably return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and the hotel was pretty good. The service at the front desk was great, everyone was very friendly. When we needed something brought to the room they were quick to deliver it. The room was okay for the most part. The mattress and pillows were not comfortable at all. Rough mattress and very thin pillows. The TV had very few channels. The room and bathroom were clean though. The towels were rough and felt more like sandpaper. The shower head was powerful and the water stayed warm for a long time. The wifi wasn't the best. When it did connect it was very slow. Some of time it would take too long to connect. The hotel seemed pretty clean inside and out. The parking lot was maintained well. The elevators were fast, we stayed on the fourth floor and never had to wait more than 30 seconds. The breakfast was simple, just coffee and tea, oranges and granola bars. The hotel is in a very convenient area, close to many restaurants, the movie theater and bowling alley all within walking distance. It wasn't noisy at all, even being right off I-25. We would probably return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r239821425-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>239821425</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel Experience-Amazing Staff</t>
+  </si>
+  <si>
+    <t>This hotel has been outstanding.  Everything including the staff, price, rooms, facility, location, and service has been exceptional.  During check in, Rainey, was incredibly helpful and located a specific type of room needed with no delay.  She was professional, skilled, and friendly when checking in and continued to be throughout the stay. She went the "extra mile" to make sure the stay was a great experience.  I also spoke with Lindsey and Michael who were very helpful too. Definitely recommend this hotel and would come again.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r216904978-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>216904978</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Our First Time</t>
+  </si>
+  <si>
+    <t>Ok folks, over the years my wife and I have stayed at some pretty swanky places. On a recent trip to the Denver area we decided to go a different route because of the time we needed to stay at the hotel. We decided to try Extended Stay America for a change. Well, the hotel was clean and neat. The staff members were really nice and friendly... Helpful too. So what we had to change our own sheets and ask for towels on a daily basis. IT'S A DISCOUNT CHAIN!!! So if you're expecting The Omni Berkshire you need to book the Omni. The wife and I had only 1 issue. The beds had mattresses that were hard as plywood. Now, I'm a little spoiled at home because of my Sleep Number mattress but darn, we haven't slept on a bed that bad since the Hotel Felix in Chicago. We left with major backaches. I understand Extended Stay, you're trying to offer a discount hotel so you need to keep cost low. I get it. Just please stop buying those mattresses from the Federal Prison Industries mattress catalog and you'll have a repeat customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Ok folks, over the years my wife and I have stayed at some pretty swanky places. On a recent trip to the Denver area we decided to go a different route because of the time we needed to stay at the hotel. We decided to try Extended Stay America for a change. Well, the hotel was clean and neat. The staff members were really nice and friendly... Helpful too. So what we had to change our own sheets and ask for towels on a daily basis. IT'S A DISCOUNT CHAIN!!! So if you're expecting The Omni Berkshire you need to book the Omni. The wife and I had only 1 issue. The beds had mattresses that were hard as plywood. Now, I'm a little spoiled at home because of my Sleep Number mattress but darn, we haven't slept on a bed that bad since the Hotel Felix in Chicago. We left with major backaches. I understand Extended Stay, you're trying to offer a discount hotel so you need to keep cost low. I get it. Just please stop buying those mattresses from the Federal Prison Industries mattress catalog and you'll have a repeat customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r203651659-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>203651659</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>WOW!  Very nice for the price.</t>
+  </si>
+  <si>
+    <t>While motels with more amenities are also available, here is a clean friendly, conveniently located motel, that is anxious to please.  What a breath of fresh air.We found a staff that  is actually committed to doing their jobs well, and seeing that customers receive honest value for money spent.  We will now seek out Extended Stay motels on trips.Our sincere thanks.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1798,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1830,3425 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>297</v>
+      </c>
+      <c r="X31" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>305</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>306</v>
+      </c>
+      <c r="X32" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>314</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>315</v>
+      </c>
+      <c r="X33" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>315</v>
+      </c>
+      <c r="X34" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>338</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>339</v>
+      </c>
+      <c r="X36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>338</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>347</v>
+      </c>
+      <c r="X37" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>351</v>
+      </c>
+      <c r="J38" t="s">
+        <v>352</v>
+      </c>
+      <c r="K38" t="s">
+        <v>353</v>
+      </c>
+      <c r="L38" t="s">
+        <v>354</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>355</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>358</v>
+      </c>
+      <c r="J39" t="s">
+        <v>359</v>
+      </c>
+      <c r="K39" t="s">
+        <v>360</v>
+      </c>
+      <c r="L39" t="s">
+        <v>361</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>370</v>
+      </c>
+      <c r="X40" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>373</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>374</v>
+      </c>
+      <c r="J41" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" t="s">
+        <v>376</v>
+      </c>
+      <c r="L41" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>378</v>
+      </c>
+      <c r="O41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>389</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>391</v>
+      </c>
+      <c r="J44" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" t="s">
+        <v>394</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>329</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>395</v>
+      </c>
+      <c r="X44" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>402</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>329</v>
+      </c>
+      <c r="O45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>403</v>
+      </c>
+      <c r="X45" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>406</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>407</v>
+      </c>
+      <c r="J46" t="s">
+        <v>408</v>
+      </c>
+      <c r="K46" t="s">
+        <v>409</v>
+      </c>
+      <c r="L46" t="s">
+        <v>410</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>411</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>412</v>
+      </c>
+      <c r="X46" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>415</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>416</v>
+      </c>
+      <c r="J47" t="s">
+        <v>417</v>
+      </c>
+      <c r="K47" t="s">
+        <v>418</v>
+      </c>
+      <c r="L47" t="s">
+        <v>419</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>411</v>
+      </c>
+      <c r="O47" t="s">
+        <v>420</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>412</v>
+      </c>
+      <c r="X47" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>423</v>
+      </c>
+      <c r="J48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K48" t="s">
+        <v>425</v>
+      </c>
+      <c r="L48" t="s">
+        <v>426</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>427</v>
+      </c>
+      <c r="O48" t="s">
+        <v>420</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>428</v>
+      </c>
+      <c r="X48" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>432</v>
+      </c>
+      <c r="J49" t="s">
+        <v>433</v>
+      </c>
+      <c r="K49" t="s">
+        <v>434</v>
+      </c>
+      <c r="L49" t="s">
+        <v>435</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" t="s">
+        <v>440</v>
+      </c>
+      <c r="L50" t="s">
+        <v>441</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>442</v>
+      </c>
+      <c r="O50" t="s">
+        <v>149</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>445</v>
+      </c>
+      <c r="J51" t="s">
+        <v>446</v>
+      </c>
+      <c r="K51" t="s">
+        <v>447</v>
+      </c>
+      <c r="L51" t="s">
+        <v>448</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>449</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>455</v>
+      </c>
+      <c r="O52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>462</v>
+      </c>
+      <c r="O53" t="s">
+        <v>149</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_79.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_79.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="717">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r607180812-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>656236</t>
+  </si>
+  <si>
+    <t>1145981</t>
+  </si>
+  <si>
+    <t>607180812</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Give Jesse and Ginger a raise on 100% customer service!!!!!</t>
+  </si>
+  <si>
+    <t>Currently have been staying at this hotel for a few weeks and so far Jesse at the front desk has been amazing. He treats my family like family but really takes care of us even in the smallest detail. I can't lie, some minor issues with the manager and I feel bad for his staff with the overload. However as far as customer service and going above and beyond for anyone staying at this hotel... Jesse as well as Ginger have been AMAZING. If you stay here and ever need anything, go to them directly.Only negative thing I've noticed is their scheduling of house keeping. If you want it done you are better off going to the desk and asking directly to make sure it's done on your scheduled day.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Currently have been staying at this hotel for a few weeks and so far Jesse at the front desk has been amazing. He treats my family like family but really takes care of us even in the smallest detail. I can't lie, some minor issues with the manager and I feel bad for his staff with the overload. However as far as customer service and going above and beyond for anyone staying at this hotel... Jesse as well as Ginger have been AMAZING. If you stay here and ever need anything, go to them directly.Only negative thing I've noticed is their scheduling of house keeping. If you want it done you are better off going to the desk and asking directly to make sure it's done on your scheduled day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r562485376-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>562485376</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>I checked in here around 9 pm and I wish I could remember the young lady’s name who checked me in but she was amazing!She was very fast but thorough with the check in and she made me feel right at home.I called to ask her how to shut the window because I could not get it closed and she came right up to help me.When I was looking for an extended stay I was really scared off of other locations because of the bad reviews but this one had great reviews so that’s why I chose this one.I can definitely see why because this place is really perfect!Everything is clean here including the lobby.The room is just exactly what you need and they provide everything you could need during your stay.My room was on the highway side but it was not noisy at all.The bed was very comfortable,the bathroom was the perfect size and it was quiet which is what I really needed.I would highly recommend this to anyone needing a home away from home.If I ever need temporary housing or just a night away from home this will be my first choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>I checked in here around 9 pm and I wish I could remember the young lady’s name who checked me in but she was amazing!She was very fast but thorough with the check in and she made me feel right at home.I called to ask her how to shut the window because I could not get it closed and she came right up to help me.When I was looking for an extended stay I was really scared off of other locations because of the bad reviews but this one had great reviews so that’s why I chose this one.I can definitely see why because this place is really perfect!Everything is clean here including the lobby.The room is just exactly what you need and they provide everything you could need during your stay.My room was on the highway side but it was not noisy at all.The bed was very comfortable,the bathroom was the perfect size and it was quiet which is what I really needed.I would highly recommend this to anyone needing a home away from home.If I ever need temporary housing or just a night away from home this will be my first choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r591307727-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>591307727</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Ginger was amazing and welcoming</t>
+  </si>
+  <si>
+    <t>Came in and Ginger immediately found something in common with us about a water bottle. It made conversation go great and made us feel welcome.  Hopefully she is still here next time we come.thanks again Ginger!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Came in and Ginger immediately found something in common with us about a water bottle. It made conversation go great and made us feel welcome.  Hopefully she is still here next time we come.thanks again Ginger!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r590240463-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>590240463</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Filthiest Hotel I've Ever Stayed In</t>
+  </si>
+  <si>
+    <t>We came to Denver for a girls shopping trip and had originally planned to stay here for three nights. We ended up staying for only one night and finding a better hotel to stay at because this hotel is the filthiest hotel I have ever stayed in. The carpets were stained and looked like they have never been vacuumed before. The bathroom was absolutely disgusting to the point where we didn't want to use the toilet or shower. However, the worst part was the beds. I'm surprised we didn't get bed bugs. In one bed, the sheets were stained and in the other bed, we found hair EVERYWHERE in the sheets that wasn't ours. Needless to say, that painful night, we slept on top of the comforter to avoid sleeping in the gross sheets. This was a strong indicator that our sheets were never changed. The kitchenette was also run down and dingy. Even the common areas of the hotel were filthy and disgusting, ESPECIALLY the stair wells. I understand that this hotel is not the Hyatt Regency, but basic cleanliness should be standard. If you are a person who enjoys basic cleanliness, do NOT stay here! Needless to say, we will never be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>We came to Denver for a girls shopping trip and had originally planned to stay here for three nights. We ended up staying for only one night and finding a better hotel to stay at because this hotel is the filthiest hotel I have ever stayed in. The carpets were stained and looked like they have never been vacuumed before. The bathroom was absolutely disgusting to the point where we didn't want to use the toilet or shower. However, the worst part was the beds. I'm surprised we didn't get bed bugs. In one bed, the sheets were stained and in the other bed, we found hair EVERYWHERE in the sheets that wasn't ours. Needless to say, that painful night, we slept on top of the comforter to avoid sleeping in the gross sheets. This was a strong indicator that our sheets were never changed. The kitchenette was also run down and dingy. Even the common areas of the hotel were filthy and disgusting, ESPECIALLY the stair wells. I understand that this hotel is not the Hyatt Regency, but basic cleanliness should be standard. If you are a person who enjoys basic cleanliness, do NOT stay here! Needless to say, we will never be back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r578586657-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
-    <t>656236</t>
-  </si>
-  <si>
-    <t>1145981</t>
-  </si>
-  <si>
     <t>578586657</t>
   </si>
   <si>
@@ -198,9 +312,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 18, 2018</t>
   </si>
   <si>
@@ -225,9 +336,6 @@
     <t>So I stayed at the Extended Stay in Lone Tree over Easter. The room was dirty and there was really nothing but towel and a half a roll of toilet paper. When I used the shower it had not been cleaned well and there was a huge water bubble above the shower head that had been there some quit a while. I would never stay at this hotel again...MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 13, 2018</t>
   </si>
   <si>
@@ -237,6 +345,36 @@
     <t>So I stayed at the Extended Stay in Lone Tree over Easter. The room was dirty and there was really nothing but towel and a half a roll of toilet paper. When I used the shower it had not been cleaned well and there was a huge water bubble above the shower head that had been there some quit a while. I would never stay at this hotel again...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r569017022-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>569017022</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Good, clean, basic place to stay</t>
+  </si>
+  <si>
+    <t>Provides what is needed to stay a while comfortably.  Good location. Quiet.  Extremely helpful staff. It is a pleasure to encouter such good attitudes!  Nothing fancy, but a good solid place to spend a few nights in SE Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Provides what is needed to stay a while comfortably.  Good location. Quiet.  Extremely helpful staff. It is a pleasure to encouter such good attitudes!  Nothing fancy, but a good solid place to spend a few nights in SE Denver!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r559330529-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -252,12 +390,6 @@
     <t>I appreciate the sales pitch of looking for apartments in this very expensive Denver area and finding all of the amenities at a lower monthly rate here at my extended new home as I begin a new job. My dog is happy here too with the bright sunny windows. I even bought some plants to help it feel more like a home. I appreciate you more than you realize!MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded February 15, 2018</t>
   </si>
   <si>
@@ -321,6 +453,51 @@
     <t>I checked in this extended America at park meadows drive lone tree Colorado and Iam very much delighted to stay here.Everything was perfect to stay. Get to stay.Awesome one of the best I have seenAll best for future.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r538359331-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>538359331</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>I loved the second room we were in and Nathen and Ginger was very nice people if we come again I hope we get them gain thank you and the second room was very clean and the toilet that worked. Our stay was very niceMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>I loved the second room we were in and Nathen and Ginger was very nice people if we come again I hope we get them gain thank you and the second room was very clean and the toilet that worked. Our stay was very niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r538274588-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>538274588</t>
+  </si>
+  <si>
+    <t>Frendly staff.</t>
+  </si>
+  <si>
+    <t>Very nice staff and room was clean and very close to the mall and a 7-11 right up front makes it very convenient. Lots close by to do and restaurants you can walk to . Right by a fox and hound . If we are in lone tree again we will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Very nice staff and room was clean and very close to the mall and a 7-11 right up front makes it very convenient. Lots close by to do and restaurants you can walk to . Right by a fox and hound . If we are in lone tree again we will stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r528569442-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -336,9 +513,6 @@
     <t>They were very helpful, and would highly recommend them to anyone traveling for business.. Also great location! Were also very professional, and clean. Overall a nice, quiet, affordable, place to stay if you're traveling for business.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded October 1, 2017</t>
   </si>
   <si>
@@ -399,27 +573,66 @@
     <t>Stayed at Extended Stay America n Lone Tree CO with 3 dogs while house hunting and relocating to Denver area. Hotel was clean, staff was friendly and helpful, the area was full of restaurant and entertainment options yet quiet at night.  Would definitely recommend for long term stays.  Negatives: The tv channel options were very limited and the internet was slow.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r513501654-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>513501654</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Filthy, outdated, stinky rooms...</t>
+  </si>
+  <si>
+    <t>Rooms were so gross, everything you touched was grimy or sticky, even your feet stuck to the kitchen floors. Towels had employee hair in them.. Rooms, bedding etc is outdated.. Andrew at desk is nosey and very rude... needs a lot more training and common sense!! You don't just ask people why they are there and what they are doing there as if they shouldn't be there...Also, listen to your customers! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Rooms were so gross, everything you touched was grimy or sticky, even your feet stuck to the kitchen floors. Towels had employee hair in them.. Rooms, bedding etc is outdated.. Andrew at desk is nosey and very rude... needs a lot more training and common sense!! You don't just ask people why they are there and what they are doing there as if they shouldn't be there...Also, listen to your customers! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r532509467-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>532509467</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Dirty and not worth the money</t>
+  </si>
+  <si>
+    <t>Shower had mold. Mirror was dirty. Fridge had someone else's food in it. Pillows were flat as boards. Bedspread was coming undone with string all over it. AC didn't work. No screen on windows so we couldn't leave them open as bugs were getting in.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Shower had mold. Mirror was dirty. Fridge had someone else's food in it. Pillows were flat as boards. Bedspread was coming undone with string all over it. AC didn't work. No screen on windows so we couldn't leave them open as bugs were getting in.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r532509466-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
     <t>532509466</t>
   </si>
   <si>
-    <t>08/09/2017</t>
-  </si>
-  <si>
     <t>Smelly and Dirty</t>
   </si>
   <si>
     <t>Upon entering, it smelled like a smoking room but then I realized it was just musty and dirty. Hair found on washcloth. Surfaces were dirty. Even soap felt cheap and reused. Won't be visiting Extended Stay again.MoreShow less</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded October 13, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 13, 2017</t>
-  </si>
-  <si>
     <t>Upon entering, it smelled like a smoking room but then I realized it was just musty and dirty. Hair found on washcloth. Surfaces were dirty. Even soap felt cheap and reused. Won't be visiting Extended Stay again.More</t>
   </si>
   <si>
@@ -465,9 +678,6 @@
     <t>Overall, the experience was neutral. Room was clean, provided items needed if you were staying longer as the name suggested, Extended stay. Bed was very firm and the TV programming guide didn't match the channels.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 25, 2017</t>
   </si>
   <si>
@@ -477,27 +687,66 @@
     <t>Overall, the experience was neutral. Room was clean, provided items needed if you were staying longer as the name suggested, Extended stay. Bed was very firm and the TV programming guide didn't match the channels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r504846993-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>504846993</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>ESA Denver</t>
+  </si>
+  <si>
+    <t>Denver is very expensive to travel to for Business. I would rather Pay more money to stay at a better hotel. There was no cleaning of the room, there were bugs, and zero workout area. I will definitely stay at another hotel nextime MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Denver is very expensive to travel to for Business. I would rather Pay more money to stay at a better hotel. There was no cleaning of the room, there were bugs, and zero workout area. I will definitely stay at another hotel nextime More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r504048263-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>504048263</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Great Experience and great staff</t>
+  </si>
+  <si>
+    <t>The staff is great. I would to appreciate Amber and Ginger for being very helpful. Amber is very good despite her pregnancy she always proactive to help my family during my stay. More over I never faced any problem during my stay. Location is awesome. You should visit and stay there when you are in Denver. Lot is stored , big mall etc. big thanks to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>The staff is great. I would to appreciate Amber and Ginger for being very helpful. Amber is very good despite her pregnancy she always proactive to help my family during my stay. More over I never faced any problem during my stay. Location is awesome. You should visit and stay there when you are in Denver. Lot is stored , big mall etc. big thanks to the staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r504072975-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
     <t>504072975</t>
   </si>
   <si>
-    <t>07/20/2017</t>
-  </si>
-  <si>
     <t>Dirty and staff was MIA</t>
   </si>
   <si>
     <t>Room was dirty and not cared for upon arrival.  The carpet had dirt on it and there was a significant amount of blood on the bathroom door frame.  The exterior doors were not secured.  I would not recommend this hotel to anyone.MoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 21, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 21, 2017</t>
-  </si>
-  <si>
     <t>Room was dirty and not cared for upon arrival.  The carpet had dirt on it and there was a significant amount of blood on the bathroom door frame.  The exterior doors were not secured.  I would not recommend this hotel to anyone.More</t>
   </si>
   <si>
@@ -549,27 +798,81 @@
     <t>We were very pleased with cleanliness, size of the room, and service at this hotel. I would like for them to include a regular breakfast instead of grab and go but that's no big deal with all the nearby restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r499136385-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>499136385</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Idea </t>
+  </si>
+  <si>
+    <t>I got hurt bad by Extended Stay America Denver - Park Meadows Hotel and Delta Airlines.
+NEVER USE THE DELTA APP TO MAKE HOTEL AND RENTAL CAR RESERVATIONS! 
+I tried something different this time and booked my airline, room and rental car using the Delta Airline App. Yes it was easy and convenient. But the price was high. When I tried to change it, it was to late! There is a NO CANCELLATION policy. 
+My two night stay at this hotel by myself was $ 340.48. This hotel was 23 miles away from where I needed to stay. There were eight other hotels only one block away from my destination and all of the hotels had room rates cheaper than Extended Stay America. 
+So in addition to paying a $100 more for hotel rooms, I added a 20 minute drive to my event. I had to make two trips each day. So I spent a total of two hours driving back and forth between my event and hotel. 
+The no cancellation policy put me in a pickle. I have never experienced this before in over 35 years of extensive travel both domestic and world wide. The Hotel and the Airline cost me heavy. This was an expensive price to pay for my own stupidity and I wanted to share this experience with other travelers. 
+Beware of the hidden policies that will suck the time management out of your clock as...I got hurt bad by Extended Stay America Denver - Park Meadows Hotel and Delta Airlines.NEVER USE THE DELTA APP TO MAKE HOTEL AND RENTAL CAR RESERVATIONS! I tried something different this time and booked my airline, room and rental car using the Delta Airline App. Yes it was easy and convenient. But the price was high. When I tried to change it, it was to late! There is a NO CANCELLATION policy. My two night stay at this hotel by myself was $ 340.48. This hotel was 23 miles away from where I needed to stay. There were eight other hotels only one block away from my destination and all of the hotels had room rates cheaper than Extended Stay America. So in addition to paying a $100 more for hotel rooms, I added a 20 minute drive to my event. I had to make two trips each day. So I spent a total of two hours driving back and forth between my event and hotel. The no cancellation policy put me in a pickle. I have never experienced this before in over 35 years of extensive travel both domestic and world wide. The Hotel and the Airline cost me heavy. This was an expensive price to pay for my own stupidity and I wanted to share this experience with other travelers. Beware of the hidden policies that will suck the time management out of your clock as you try to recover the money you just wasted.To pour fuel to the fire, the breakfast that the front desk told me about was a hand full of granola bars and cold coffee. It was hilarious. I was so embarrassed that I got trapped into this stupid reservation and I could not get out of it. My own fault. Live and learn.Never, never again, will I set foot into an Extended Stay America hotel. Over priced, over promised and under served. I think I will stick with the Hilton and Marriott Hotels. Never trust hotel app for distance.Always copy and paste address and put into google maps and check the distance yourself outside of the vendors application. Both the Delta App and Extended Stay web site show that this hotel was the closest to my destination. It was not! There were ( 8 ) other hotels closer. Three that I could walk to. Yes, they had rooms available. I could not cancel. So I got stuck! $$$ what a big mistake. The hotel was clean, staff nice. It was easy to access from the highway and there was plenty of parking. This for me was a bad hotel and I would not recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>I got hurt bad by Extended Stay America Denver - Park Meadows Hotel and Delta Airlines.
+NEVER USE THE DELTA APP TO MAKE HOTEL AND RENTAL CAR RESERVATIONS! 
+I tried something different this time and booked my airline, room and rental car using the Delta Airline App. Yes it was easy and convenient. But the price was high. When I tried to change it, it was to late! There is a NO CANCELLATION policy. 
+My two night stay at this hotel by myself was $ 340.48. This hotel was 23 miles away from where I needed to stay. There were eight other hotels only one block away from my destination and all of the hotels had room rates cheaper than Extended Stay America. 
+So in addition to paying a $100 more for hotel rooms, I added a 20 minute drive to my event. I had to make two trips each day. So I spent a total of two hours driving back and forth between my event and hotel. 
+The no cancellation policy put me in a pickle. I have never experienced this before in over 35 years of extensive travel both domestic and world wide. The Hotel and the Airline cost me heavy. This was an expensive price to pay for my own stupidity and I wanted to share this experience with other travelers. 
+Beware of the hidden policies that will suck the time management out of your clock as...I got hurt bad by Extended Stay America Denver - Park Meadows Hotel and Delta Airlines.NEVER USE THE DELTA APP TO MAKE HOTEL AND RENTAL CAR RESERVATIONS! I tried something different this time and booked my airline, room and rental car using the Delta Airline App. Yes it was easy and convenient. But the price was high. When I tried to change it, it was to late! There is a NO CANCELLATION policy. My two night stay at this hotel by myself was $ 340.48. This hotel was 23 miles away from where I needed to stay. There were eight other hotels only one block away from my destination and all of the hotels had room rates cheaper than Extended Stay America. So in addition to paying a $100 more for hotel rooms, I added a 20 minute drive to my event. I had to make two trips each day. So I spent a total of two hours driving back and forth between my event and hotel. The no cancellation policy put me in a pickle. I have never experienced this before in over 35 years of extensive travel both domestic and world wide. The Hotel and the Airline cost me heavy. This was an expensive price to pay for my own stupidity and I wanted to share this experience with other travelers. Beware of the hidden policies that will suck the time management out of your clock as you try to recover the money you just wasted.To pour fuel to the fire, the breakfast that the front desk told me about was a hand full of granola bars and cold coffee. It was hilarious. I was so embarrassed that I got trapped into this stupid reservation and I could not get out of it. My own fault. Live and learn.Never, never again, will I set foot into an Extended Stay America hotel. Over priced, over promised and under served. I think I will stick with the Hilton and Marriott Hotels. Never trust hotel app for distance.Always copy and paste address and put into google maps and check the distance yourself outside of the vendors application. Both the Delta App and Extended Stay web site show that this hotel was the closest to my destination. It was not! There were ( 8 ) other hotels closer. Three that I could walk to. Yes, they had rooms available. I could not cancel. So I got stuck! $$$ what a big mistake. The hotel was clean, staff nice. It was easy to access from the highway and there was plenty of parking. This for me was a bad hotel and I would not recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r498837438-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>498837438</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Almost there.</t>
+  </si>
+  <si>
+    <t>Great location, mixed service not very happy with attention to details. General appearance of parking areas  and cleanliness of common interiors needed a lot of improvement. I was given a pet room although my reservation stated allergies and breathing problems. Clean towels and linens were always in short supply. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Great location, mixed service not very happy with attention to details. General appearance of parking areas  and cleanliness of common interiors needed a lot of improvement. I was given a pet room although my reservation stated allergies and breathing problems. Clean towels and linens were always in short supply. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r499036391-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
     <t>499036391</t>
   </si>
   <si>
-    <t>07/05/2017</t>
-  </si>
-  <si>
     <t>visit from Reno, NV</t>
   </si>
   <si>
     <t>not impressed for the amount of $$$ I spent - will not stay there or any other Extended Stay facility - my family stayed @ other venues for much less w/better service &amp; a full breakfast included - the room stank from the prior guests (I think) the staff was nice but the overall room was not to my satisfactionMoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded July 7, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 7, 2017</t>
-  </si>
-  <si>
     <t>not impressed for the amount of $$$ I spent - will not stay there or any other Extended Stay facility - my family stayed @ other venues for much less w/better service &amp; a full breakfast included - the room stank from the prior guests (I think) the staff was nice but the overall room was not to my satisfactionMore</t>
   </si>
   <si>
@@ -588,9 +891,6 @@
     <t>First...Ginger greeted me with a warm smile and was very friendly. I got to the room and started to unpack, when I sat on the bed I thought this has to be the hardest bed ever, after investigating more I realized the mattress was upside down, I was sitting on springs from the mattress, so I called down to speak to Ginger again, advised that I could not get connected on the internet and that the mattress needed to be flipped. She came right up, once we removed the bedding (thin sheets, rough blanket and a very thin bedspread there was a hospital looking mattress pad covering up Urine stains on the bottom of the mattress (spring side) we flipped it and the entire mattress top material was ripped, old mattress, we re made the bed and as I sat there I decided that there was no way I could sleep on that, the thought of the urine stains and god knows what else was on it, I zipped up the luggage and booked it to a new hotel just up the road about 15 minutes. I understand that these are not 5 star hotels, but the lack of care that this franchise or corporate owned business is unacceptable! I just needed a room for the night for a business trip, at 145.00 a night 160 something with tax, they should at least have better quality bedding. Shame on this...First...Ginger greeted me with a warm smile and was very friendly. I got to the room and started to unpack, when I sat on the bed I thought this has to be the hardest bed ever, after investigating more I realized the mattress was upside down, I was sitting on springs from the mattress, so I called down to speak to Ginger again, advised that I could not get connected on the internet and that the mattress needed to be flipped. She came right up, once we removed the bedding (thin sheets, rough blanket and a very thin bedspread there was a hospital looking mattress pad covering up Urine stains on the bottom of the mattress (spring side) we flipped it and the entire mattress top material was ripped, old mattress, we re made the bed and as I sat there I decided that there was no way I could sleep on that, the thought of the urine stains and god knows what else was on it, I zipped up the luggage and booked it to a new hotel just up the road about 15 minutes. I understand that these are not 5 star hotels, but the lack of care that this franchise or corporate owned business is unacceptable! I just needed a room for the night for a business trip, at 145.00 a night 160 something with tax, they should at least have better quality bedding. Shame on this business! I did call back tonight after I left to tell Ginger how sweet she was and how she deserves to work for a company that takes  pride in their business like she takes pride in her job and customer service! I would love the owners to sleep one night on a urine stained mattress and sleep good! Never again Extended stay..never againMoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 29, 2017</t>
   </si>
   <si>
@@ -624,6 +924,54 @@
     <t>Free breakfast was disappointing as only had coffee, granola bars and tiny muffins as their free breakfast... No juice or milk for kids. Would rather spent few more dollars at a different hotel that had a real breakfast as eggs, bacon, waffles, fruit, yogurt,  bagels,  muffins/ pastries,  cereal and oatmeal along with coffee.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r492066355-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>492066355</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service </t>
+  </si>
+  <si>
+    <t>Just would like to say thank you for having such a great person at front desk. (Amber) she is truly a pressure to have to work with. She display great social skills and very knowledge of company. Helpful in every way I would love into more person like her when have to check in to hotels or anything dealing with customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Just would like to say thank you for having such a great person at front desk. (Amber) she is truly a pressure to have to work with. She display great social skills and very knowledge of company. Helpful in every way I would love into more person like her when have to check in to hotels or anything dealing with customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r491383272-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>491383272</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employees </t>
+  </si>
+  <si>
+    <t>Ginger is the most hospitable desk clerk I think I ever met.She is glad to help customers who need anything to help make their stay enjoyable.  Hats off to this gal! There's another great employee on the staff named Amber who is also fantastic to accommodate you with anything from extra towels to silverware.Extended stay America is 5 stars in my book!!! Keith C.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Ginger is the most hospitable desk clerk I think I ever met.She is glad to help customers who need anything to help make their stay enjoyable.  Hats off to this gal! There's another great employee on the staff named Amber who is also fantastic to accommodate you with anything from extra towels to silverware.Extended stay America is 5 stars in my book!!! Keith C.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r489470877-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -687,15 +1035,57 @@
     <t>First of all my room was double booked, even though that I booked my room by calling the hotel directly on the hotel phone number. I didnt book through any third party and yet, the room was double booked.Second, even though the hotel knew that they dont have any rooms available , no one called me to cancel my reservation, and they waited until i showed up to tell me that they dont have roomsThird, The front desk told me to check with other hotels, and didnt offer transportation and calling the other hotels themselves, even thought it is the hotel fault not mine, finding me a room in another hotel is the least i would expect.Fourth, I called the manager and after 40 minutes he managed to find me a room in the extended stay hotel, so I didnt have to leave. when I went to the room, I found I dirty sport on the bed sheet !!!At the end of the my stay, I would have expected some kind of discount or credit back, as a way to apologize for the time wasted and the poor service, but nothing happened.Last, The hotel offers some quick snacks for breakfast, but i went for breakfast during breakfast hours, I found that the hotel ran out of muffins, and cereal !!!I WILL DEFINTELY NOT STAY IN THIS HOTEL EVER AGAIN.MoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded June 8, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 8, 2017</t>
-  </si>
-  <si>
     <t>First of all my room was double booked, even though that I booked my room by calling the hotel directly on the hotel phone number. I didnt book through any third party and yet, the room was double booked.Second, even though the hotel knew that they dont have any rooms available , no one called me to cancel my reservation, and they waited until i showed up to tell me that they dont have roomsThird, The front desk told me to check with other hotels, and didnt offer transportation and calling the other hotels themselves, even thought it is the hotel fault not mine, finding me a room in another hotel is the least i would expect.Fourth, I called the manager and after 40 minutes he managed to find me a room in the extended stay hotel, so I didnt have to leave. when I went to the room, I found I dirty sport on the bed sheet !!!At the end of the my stay, I would have expected some kind of discount or credit back, as a way to apologize for the time wasted and the poor service, but nothing happened.Last, The hotel offers some quick snacks for breakfast, but i went for breakfast during breakfast hours, I found that the hotel ran out of muffins, and cereal !!!I WILL DEFINTELY NOT STAY IN THIS HOTEL EVER AGAIN.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r488458953-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>488458953</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>My fiancé and I came down for the Colorado Rapids game and looked for cheaper hotels, as we really do not "hang out" in our rooms when we travel. This hotel was perfect for that. Our front desk attendant, Ginger, was very friendly and knowledgeable. She got us in our room fast and with no hassle. The room was very clean and besides the toilet running for an oddly long time after flushing, it was a great place. I'd stay here again, and you could not really beat the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>My fiancé and I came down for the Colorado Rapids game and looked for cheaper hotels, as we really do not "hang out" in our rooms when we travel. This hotel was perfect for that. Our front desk attendant, Ginger, was very friendly and knowledgeable. She got us in our room fast and with no hassle. The room was very clean and besides the toilet running for an oddly long time after flushing, it was a great place. I'd stay here again, and you could not really beat the price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r482918737-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>482918737</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>For the money you pay might as well pay additional $20 and get another hotel</t>
+  </si>
+  <si>
+    <t>1) For the 3 days we stayed no room service was done. Part of hotel policy2) No hair dryer or shampoo in the room. We had to keep on asking for it from the front desk3) I would consider paying an extra $20 to stay at other hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>1) For the 3 days we stayed no room service was done. Part of hotel policy2) No hair dryer or shampoo in the room. We had to keep on asking for it from the front desk3) I would consider paying an extra $20 to stay at other hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r481455149-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -771,6 +1161,57 @@
     <t>I moved into the US just recently and needed a place to stay until my apartment lease is through. This place is a the best place to stay within budget. Rooms are clean and staff are very friendly. Ginger is my favorite person here and thanks for all her help.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r473588522-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>473588522</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice accommodations &amp; evening front desk person was great. </t>
+  </si>
+  <si>
+    <t>Just needed a simple room for myself &amp; 2 kids, so 2 beds preferred.  There wasn't much left like that but Josefa at the front desk got us a nice room that the bedroom was separate from the living room with a pull out sofa. It was perfect for us. Plenty of room. If I had to say anything negative about the room I should mention that the fire detector was taken down &amp; sitting on the counter with the batteries out, &amp; had we not pulled out the sofa to make the bed we would not have found the remote.  The breakfast is minimal but something is better than nothing.  I wasn't crazy about the massive piles of trash under the stairs outside.  That encourages rodents so they should probably be more diligent on that. It looked as if hadn't been take out in a week &amp; was starting to smell. Big shout out to Josefa. She was very nice &amp; accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Just needed a simple room for myself &amp; 2 kids, so 2 beds preferred.  There wasn't much left like that but Josefa at the front desk got us a nice room that the bedroom was separate from the living room with a pull out sofa. It was perfect for us. Plenty of room. If I had to say anything negative about the room I should mention that the fire detector was taken down &amp; sitting on the counter with the batteries out, &amp; had we not pulled out the sofa to make the bed we would not have found the remote.  The breakfast is minimal but something is better than nothing.  I wasn't crazy about the massive piles of trash under the stairs outside.  That encourages rodents so they should probably be more diligent on that. It looked as if hadn't been take out in a week &amp; was starting to smell. Big shout out to Josefa. She was very nice &amp; accommodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r470041137-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>470041137</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Don't skip these guys if you need just one night.</t>
+  </si>
+  <si>
+    <t>There was a huge snow storm coming and I needed just one night of lodging.  (I work in the Denver Tech Center but live about an hour out of town...there was no way I was going to be able to get to work the next day if I'd gone home.)  I tried a couple of hotels around Park Meadows mall but they were booked solid.  My perception of Extended Stay America is that they really cater to people who need to camp out for days or weeks at a time, but Ginger at the front desk to the rescue!  I got one night's lodging for quite a bit less than the other hotels in the area, and while frankly not as fancy, this hotel was wonderful.  It was clean and super quiet, which was really all I needed.  Ginger and the other staff members were very friendly and helpful.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>There was a huge snow storm coming and I needed just one night of lodging.  (I work in the Denver Tech Center but live about an hour out of town...there was no way I was going to be able to get to work the next day if I'd gone home.)  I tried a couple of hotels around Park Meadows mall but they were booked solid.  My perception of Extended Stay America is that they really cater to people who need to camp out for days or weeks at a time, but Ginger at the front desk to the rescue!  I got one night's lodging for quite a bit less than the other hotels in the area, and while frankly not as fancy, this hotel was wonderful.  It was clean and super quiet, which was really all I needed.  Ginger and the other staff members were very friendly and helpful.  Highly recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r457658333-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -849,6 +1290,57 @@
     <t>Extremely friendly staff. Good to walk into a place to see a smiling face, Ginger from the front desk provided us with plenty of information as far as restaurants and store locations in the area. She was very professional but made us feel very welcome and comfortable. As well as offering us any over night amenities needed. Good wifi connection and television channels. Would recommend to anyone. Happy with our choice in hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r451750216-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>451750216</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Unparalleled Service!</t>
+  </si>
+  <si>
+    <t>The entire staff is great! Ginger, Brian, Michaela, Priscilla, Amber, Priscilla, Jeff, Flor, and the all of the housekeeping and maintenance.  They are quick to resolve any issues if any ever pop up, make things seamless, keep the place clean.  I have seen and met other guests happy with the place and for someone that does their work from their room on business, it is always quiet.  I couldn't ask for better.  Cons: None that I can think of.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>The entire staff is great! Ginger, Brian, Michaela, Priscilla, Amber, Priscilla, Jeff, Flor, and the all of the housekeeping and maintenance.  They are quick to resolve any issues if any ever pop up, make things seamless, keep the place clean.  I have seen and met other guests happy with the place and for someone that does their work from their room on business, it is always quiet.  I couldn't ask for better.  Cons: None that I can think of.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r445408837-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>445408837</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Suffiecient</t>
+  </si>
+  <si>
+    <t>Needed full size kitchen for medical reasons so hotel was sufficient. Room could have been cleaner but staff corrected problem. Flor at front desk was outstanding. Hotel is average, nothing outstanding about it. Basic accommodations with good ratesMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Needed full size kitchen for medical reasons so hotel was sufficient. Room could have been cleaner but staff corrected problem. Flor at front desk was outstanding. Hotel is average, nothing outstanding about it. Basic accommodations with good ratesMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r444907097-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -864,15 +1356,6 @@
     <t>Everyone at the front desk is great, especially Amber. She shows a level of professionalism that is hard to find these days. We are staying for a long period of time and are greatly enjoying our stay.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded January 4, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 4, 2017</t>
-  </si>
-  <si>
     <t>Everyone at the front desk is great, especially Amber. She shows a level of professionalism that is hard to find these days. We are staying for a long period of time and are greatly enjoying our stay.More</t>
   </si>
   <si>
@@ -918,6 +1401,45 @@
     <t>The staff was awesome! Ginger, Brian, Priscilla, Jeff, Dusty, Amber, and JocaBeth.If I missed anyone sorry, everyone did an excellent job to service us and our needs. Always fresh towels and supplies. Friendly team who works hard to meet customers needs. We stayed at Park Meadows for 23 nights. The maids were awesome too. Always friendly and helpful. Excellent Service, I would recommend this Park Meadows Extended stay to my friends and family anytime.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r442989107-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>442989107</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Great stay --its even a grade above the ranking</t>
+  </si>
+  <si>
+    <t>The front desk staff--especially Ginyen, were wonderful.  They helped with advice on where to shop and eat, and really seemed to care.  The rooms are clean, the internet is fast, TV has enough channels, and the air-conditioning &amp; heater (even when it is below zero), works well.I will definitely be back here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff--especially Ginyen, were wonderful.  They helped with advice on where to shop and eat, and really seemed to care.  The rooms are clean, the internet is fast, TV has enough channels, and the air-conditioning &amp; heater (even when it is below zero), works well.I will definitely be back here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r441018619-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>441018619</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Great Front Desk Staff</t>
+  </si>
+  <si>
+    <t>The front desk staff is extremely friendly and accommodating, which leads to a big community feel whether staying a few nights or a few months. Housekeeping leaves something to be desired, but the rooms are simple and functional, and any issues I had were immediately taken care of by the staff and team lead.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The front desk staff is extremely friendly and accommodating, which leads to a big community feel whether staying a few nights or a few months. Housekeeping leaves something to be desired, but the rooms are simple and functional, and any issues I had were immediately taken care of by the staff and team lead.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r436485492-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -933,9 +1455,6 @@
     <t>The staff here are very friendly. Very understanding and accommodating to my needs as well. I will enjoy staying here. I first arrived and had no idea how lo g i would stay . The young lady at the front Priscilla explained to me all of the specials. And answered all of my questions without hesitation. Also she explained to me a few different ways to save money during my stay and even explained to me the specials that extended stay offered. I now have an extended stay account and will continue to use them. MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded November 29, 2016</t>
   </si>
   <si>
@@ -990,6 +1509,42 @@
     <t>I only stayed a few nights here however, the service and staff were very nice and professional. I booked online and saved an extra 5% on my stay plus filled out the hotel information to save time at check-in. Anything I needed like extra pillows and soap was provided. All the staff was very welcoming, which is a big deal.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r424762991-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>424762991</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Fit for purpose</t>
+  </si>
+  <si>
+    <t>Good location in Park Meadows.  Walking distance to many restaurants. The room was clean and the bed was comfortable so just as expected.  No real bells or whistles. The only complaint I would have is the noise from the water / bathroom above my room.  The flush was extremely loud and unfortunately whomever was staying there utilized the facilities all night long, keeping me up.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r410129522-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>410129522</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>would not recommend</t>
+  </si>
+  <si>
+    <t>One of the amenities promised is breakfast. One day I stayed there they had nothing to put out because they had not received a shipment and didn't bother to compensate. Their breakfast is limited and there is no choice. Then there is the fire alarm that apparently has been going off all week and they can't seem to get it fixed. It went off around 5 times the other day alone.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r402449366-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -1068,6 +1623,51 @@
     <t>This is an Extended Stay hotel and so is well suited for guests who want to stay longer than just a few nights. It has a kitchenette, which is what we need. For the price, it is a very good deal. It is no-frills but that's how we like it.Friendly staff! We put up with a few inconveniences because of the excellent staff.I wish the front door had an automatic door open feature because it is heavy.We have stayed there many times over the years and will do so again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r380291079-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>380291079</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>They towed my car my 3rd morning there!</t>
+  </si>
+  <si>
+    <t>This Extended Stay is actually much, much cleaner and nicer than the others I have stayed at in the Denver area. The evening desk clerk checked us in on a Friday, and was very professional and helpful. Upon arrival I noticed a small sign on the door about parking lot work on Monday, June 6th. Quite frankly, my schedule has been so hectic that I didn't even realize June 6th was the following Monday. In fact, most hotel guests are there on business, so they would all have hectic schedules like mine. This morning at 9:45 I went out to my car to get something and my car was gone. Nowhere to be found. Some workers who were hired to resurface the parking lot pointed to another lot and told me my car was towed at my expense because I didn't move it in time. It was sitting in an adjacent lot with a whole bunch of other cars belonging to other irresponsible and unfortunate guests. While it's 100% my fault for not noticing the little sign on the front door, it would have been common courtesy to notify guests upon check-in, and on the day prior to the event, to move their cars. Perhaps a sign on the guests' doors, or a note slipped underneath the morning prior? I was in my room working, starting at 4am, and was more than willing and able to move my car before...This Extended Stay is actually much, much cleaner and nicer than the others I have stayed at in the Denver area. The evening desk clerk checked us in on a Friday, and was very professional and helpful. Upon arrival I noticed a small sign on the door about parking lot work on Monday, June 6th. Quite frankly, my schedule has been so hectic that I didn't even realize June 6th was the following Monday. In fact, most hotel guests are there on business, so they would all have hectic schedules like mine. This morning at 9:45 I went out to my car to get something and my car was gone. Nowhere to be found. Some workers who were hired to resurface the parking lot pointed to another lot and told me my car was towed at my expense because I didn't move it in time. It was sitting in an adjacent lot with a whole bunch of other cars belonging to other irresponsible and unfortunate guests. While it's 100% my fault for not noticing the little sign on the front door, it would have been common courtesy to notify guests upon check-in, and on the day prior to the event, to move their cars. Perhaps a sign on the guests' doors, or a note slipped underneath the morning prior? I was in my room working, starting at 4am, and was more than willing and able to move my car before 7am had I realized this was the morning of the resurfacing! Unbelievable!MoreShow less</t>
+  </si>
+  <si>
+    <t>This Extended Stay is actually much, much cleaner and nicer than the others I have stayed at in the Denver area. The evening desk clerk checked us in on a Friday, and was very professional and helpful. Upon arrival I noticed a small sign on the door about parking lot work on Monday, June 6th. Quite frankly, my schedule has been so hectic that I didn't even realize June 6th was the following Monday. In fact, most hotel guests are there on business, so they would all have hectic schedules like mine. This morning at 9:45 I went out to my car to get something and my car was gone. Nowhere to be found. Some workers who were hired to resurface the parking lot pointed to another lot and told me my car was towed at my expense because I didn't move it in time. It was sitting in an adjacent lot with a whole bunch of other cars belonging to other irresponsible and unfortunate guests. While it's 100% my fault for not noticing the little sign on the front door, it would have been common courtesy to notify guests upon check-in, and on the day prior to the event, to move their cars. Perhaps a sign on the guests' doors, or a note slipped underneath the morning prior? I was in my room working, starting at 4am, and was more than willing and able to move my car before...This Extended Stay is actually much, much cleaner and nicer than the others I have stayed at in the Denver area. The evening desk clerk checked us in on a Friday, and was very professional and helpful. Upon arrival I noticed a small sign on the door about parking lot work on Monday, June 6th. Quite frankly, my schedule has been so hectic that I didn't even realize June 6th was the following Monday. In fact, most hotel guests are there on business, so they would all have hectic schedules like mine. This morning at 9:45 I went out to my car to get something and my car was gone. Nowhere to be found. Some workers who were hired to resurface the parking lot pointed to another lot and told me my car was towed at my expense because I didn't move it in time. It was sitting in an adjacent lot with a whole bunch of other cars belonging to other irresponsible and unfortunate guests. While it's 100% my fault for not noticing the little sign on the front door, it would have been common courtesy to notify guests upon check-in, and on the day prior to the event, to move their cars. Perhaps a sign on the guests' doors, or a note slipped underneath the morning prior? I was in my room working, starting at 4am, and was more than willing and able to move my car before 7am had I realized this was the morning of the resurfacing! Unbelievable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r376909225-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>376909225</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Perfect Location Just Minutes From DTC, Light Rail Station Nordstrom</t>
+  </si>
+  <si>
+    <t>Great stay. Friendly staff. They went above and beyond to make my stay comfortable. Wonderful experience!The property is literally minutes from the most popular mall in the Denver Metro area. I found the service to be exquisite in that they were always nearby and available but not doting. It felt like it was a priority to them to let their guest know that their patronage was appreciated and valued.Can't wait to stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Great stay. Friendly staff. They went above and beyond to make my stay comfortable. Wonderful experience!The property is literally minutes from the most popular mall in the Denver Metro area. I found the service to be exquisite in that they were always nearby and available but not doting. It felt like it was a priority to them to let their guest know that their patronage was appreciated and valued.Can't wait to stay again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r371861129-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -1137,6 +1737,42 @@
     <t>I stayed in this Hotel during my visit to Golden, CO and had a very pleasant and enjoyable experience.  The location was great with restaurants around, AMC movie theater and a Mall close by.  The staff were friendly and the Price was amazingly reasonable.  But one of the staff members JACKIE SKATES rendered exceptional service, beyond the call of duty!  I would HIGHLY RECOMMEND this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r341185843-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>341185843</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>All good--don't let previous comments distract you--this is under new ownership September 2015 so those comments don't apply.  Lots to do in surrounding area--grab n go breakfast was awesome--everyone niceMoreShow less</t>
+  </si>
+  <si>
+    <t>All good--don't let previous comments distract you--this is under new ownership September 2015 so those comments don't apply.  Lots to do in surrounding area--grab n go breakfast was awesome--everyone niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r339539968-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>339539968</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>They were good but...</t>
+  </si>
+  <si>
+    <t>This hotel was good as far as location it was in park meadows area lots of shopping and nearby restaurants within walking distance. Very clean area...The hotel was clean and the room was good only downside is that the kitchenware was not in the room you have to go to the front desk and ask for what you need. Then you have to tote all of those dishes,pots,spoons,etc. in a storage bin up to your room...if you need clean towels or room clean you must tell them...we did not get any clean towels...but Suzann was very warm and welcoming she work the nights great location and the kitchen is a plus MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was good as far as location it was in park meadows area lots of shopping and nearby restaurants within walking distance. Very clean area...The hotel was clean and the room was good only downside is that the kitchenware was not in the room you have to go to the front desk and ask for what you need. Then you have to tote all of those dishes,pots,spoons,etc. in a storage bin up to your room...if you need clean towels or room clean you must tell them...we did not get any clean towels...but Suzann was very warm and welcoming she work the nights great location and the kitchen is a plus More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r326252857-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -1188,6 +1824,51 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r315447503-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>315447503</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>maybe just problems that day</t>
+  </si>
+  <si>
+    <t>The hotel had a major snafu when it overbooked rooms for our reunion and then had to direct 20 of gusto a sister facility. and to compound it, apparently a few chambermaids didn't show to work so the (unfortunate) ,imager had to prep rooms.  While they accommodated us in a major sure-up, it left a bad taste with us.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r310380742-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>310380742</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok stay </t>
+  </si>
+  <si>
+    <t>I had a ok stay there. Room was enough comfortable and enough clean. Huge kitchen area, but with, no kitchen utensils. Nothing. All cabinets were completely empty. They don't even offer disposables cups. Not the best room that I stayed in but not the worst one!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>I had a ok stay there. Room was enough comfortable and enough clean. Huge kitchen area, but with, no kitchen utensils. Nothing. All cabinets were completely empty. They don't even offer disposables cups. Not the best room that I stayed in but not the worst one!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r309636868-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -1251,9 +1932,6 @@
     <t>My husband called the hotel and booked a room for us for one night. He used a credit card to hold the room.  When we arrived to check in, we were told that they were overbooked and our reservation had been moved to their sister hotel down the road.  When we got to the other hotel, we were not in their system and the man at the front desk had to check a room to make sure it was ready.  My husband asked about a discount for the inconvenience, they only took $10 off the rate.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded September 3, 2015</t>
   </si>
   <si>
@@ -1263,24 +1941,79 @@
     <t>My husband called the hotel and booked a room for us for one night. He used a credit card to hold the room.  When we arrived to check in, we were told that they were overbooked and our reservation had been moved to their sister hotel down the road.  When we got to the other hotel, we were not in their system and the man at the front desk had to check a room to make sure it was ready.  My husband asked about a discount for the inconvenience, they only took $10 off the rate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r297993797-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>297993797</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>If you want frustration and aggravation book a room here</t>
+  </si>
+  <si>
+    <t>Although the rooms have been renovated and are quite nice, the service here is atrocious.  Rather than include utensils, dishes, etc in the kitchens, you are advised to call down to front desk and order what you need.  When I checked in a day ago they had nothing available and said I should check that night so instead of being able to eat any of the food I have brought with me, I had to Taco Bell and when I checked at the front desk that night the woman (named Annabelle) and totally worthless told me nothing was available and that maybe the next day when people check out I might be able to get some items. She did not take my room number and showed little or no interest in my problem.  In the morning when I went down to get the coffee they have (was unable to take advantage of the free breakfast unless I wanted a muffin) because no bowls or spoons in the kitchen, I checked at the front desk and Brandi said she would have some sent up.  Being optimistic I actually thought that would happen within a couple of hours.  It is not almost 1 o'clock in the afternoon and I went down to front desk (no one answers the phone it was Brandi again who assured me that I was "on the list" for when they get stuff out of the rooms where...Although the rooms have been renovated and are quite nice, the service here is atrocious.  Rather than include utensils, dishes, etc in the kitchens, you are advised to call down to front desk and order what you need.  When I checked in a day ago they had nothing available and said I should check that night so instead of being able to eat any of the food I have brought with me, I had to Taco Bell and when I checked at the front desk that night the woman (named Annabelle) and totally worthless told me nothing was available and that maybe the next day when people check out I might be able to get some items. She did not take my room number and showed little or no interest in my problem.  In the morning when I went down to get the coffee they have (was unable to take advantage of the free breakfast unless I wanted a muffin) because no bowls or spoons in the kitchen, I checked at the front desk and Brandi said she would have some sent up.  Being optimistic I actually thought that would happen within a couple of hours.  It is not almost 1 o'clock in the afternoon and I went down to front desk (no one answers the phone it was Brandi again who assured me that I was "on the list" for when they get stuff out of the rooms where people check out. Fortunately I had gone to the store and bought something I can microwave and eat with my hands.  I am thinking of talking to the manager to find out how they can be renting rooms with useless kitchens and if someone had told me this when I checked in I would have contacted Hotwire to see if I could go to another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Although the rooms have been renovated and are quite nice, the service here is atrocious.  Rather than include utensils, dishes, etc in the kitchens, you are advised to call down to front desk and order what you need.  When I checked in a day ago they had nothing available and said I should check that night so instead of being able to eat any of the food I have brought with me, I had to Taco Bell and when I checked at the front desk that night the woman (named Annabelle) and totally worthless told me nothing was available and that maybe the next day when people check out I might be able to get some items. She did not take my room number and showed little or no interest in my problem.  In the morning when I went down to get the coffee they have (was unable to take advantage of the free breakfast unless I wanted a muffin) because no bowls or spoons in the kitchen, I checked at the front desk and Brandi said she would have some sent up.  Being optimistic I actually thought that would happen within a couple of hours.  It is not almost 1 o'clock in the afternoon and I went down to front desk (no one answers the phone it was Brandi again who assured me that I was "on the list" for when they get stuff out of the rooms where...Although the rooms have been renovated and are quite nice, the service here is atrocious.  Rather than include utensils, dishes, etc in the kitchens, you are advised to call down to front desk and order what you need.  When I checked in a day ago they had nothing available and said I should check that night so instead of being able to eat any of the food I have brought with me, I had to Taco Bell and when I checked at the front desk that night the woman (named Annabelle) and totally worthless told me nothing was available and that maybe the next day when people check out I might be able to get some items. She did not take my room number and showed little or no interest in my problem.  In the morning when I went down to get the coffee they have (was unable to take advantage of the free breakfast unless I wanted a muffin) because no bowls or spoons in the kitchen, I checked at the front desk and Brandi said she would have some sent up.  Being optimistic I actually thought that would happen within a couple of hours.  It is not almost 1 o'clock in the afternoon and I went down to front desk (no one answers the phone it was Brandi again who assured me that I was "on the list" for when they get stuff out of the rooms where people check out. Fortunately I had gone to the store and bought something I can microwave and eat with my hands.  I am thinking of talking to the manager to find out how they can be renting rooms with useless kitchens and if someone had told me this when I checked in I would have contacted Hotwire to see if I could go to another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r296421000-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>296421000</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Oh dear</t>
+  </si>
+  <si>
+    <t>I have stayed at Ext. Stay 3 different times, for 11 days, in the past 3 months.
+First night--dirty, wrinkled sheets &amp; mattress pad cover which had obviously not been changed--gross. No one available at front desk or housekeeping to change my sheets. I was given 2 fitted double sheets, for my queen sized bed, to change myself. 
+Once when I was waiting (w/several other customers) for someone to come to the front desk, another lady said that she was there to inform management that her bedding was not clean.
+During one stay, I was given 6 different room keys which did not work. 
+Seldom is anyone at the front desk--several customers waiting in line for 15 min. to check in--no one is available to give you dishes, coffee pot, etc. when needed. Customers should not have to return to the front desk to ask for a coffee pot &amp; coffee in a hotel.
+I have been mistakenly overcharged twice--once for being a "no show" &amp; I was recently charged twice for a one-night stay. 
+I have literally spent hrs. on the phone trying to call Ext. Stay on different occasions to make special reservation requests or correct my billing.  
+I have called Ext. Stay in Lone Tree many, many times &amp; seldom will anyone pick up the phone at the front desk or in guest relations. 
+I spent over 2 hours on the phone this morning--no one would answer...I have stayed at Ext. Stay 3 different times, for 11 days, in the past 3 months.First night--dirty, wrinkled sheets &amp; mattress pad cover which had obviously not been changed--gross. No one available at front desk or housekeeping to change my sheets. I was given 2 fitted double sheets, for my queen sized bed, to change myself. Once when I was waiting (w/several other customers) for someone to come to the front desk, another lady said that she was there to inform management that her bedding was not clean.During one stay, I was given 6 different room keys which did not work. Seldom is anyone at the front desk--several customers waiting in line for 15 min. to check in--no one is available to give you dishes, coffee pot, etc. when needed. Customers should not have to return to the front desk to ask for a coffee pot &amp; coffee in a hotel.I have been mistakenly overcharged twice--once for being a "no show" &amp; I was recently charged twice for a one-night stay. I have literally spent hrs. on the phone trying to call Ext. Stay on different occasions to make special reservation requests or correct my billing.  I have called Ext. Stay in Lone Tree many, many times &amp; seldom will anyone pick up the phone at the front desk or in guest relations. I spent over 2 hours on the phone this morning--no one would answer the phone. When no one would answer at the front desk, I called the national reservation line, after a long wait someone finally answered the phone, transferred me back to the Ext. Stay in Lonetree. The phone rang for almost 20 min. before I finally hung up. I called the reservation department again (since no one at the front desk in Lone Tree would answer the phone), was transferred again &amp; once again waited almost 20 minutes for someone to answer the phone, before finally hanging up. I eventually reached one of the managers, was put on hold &amp; hung up 10 minutes later. When I tried to call the front desk back, no one would answer. I called the reservation dept. again &amp; asked them to please give a message to the manager in Lone Tree &amp; have him return my call. He never did.I finally reached another manager (after spending over 2 hrs. on the phone trying to speak with someone who would help me) who agreed that I had been over-charged &amp; he reimbursed the amount in question back to my account.This hotel needs more employees &amp; help for their management team. Extremely poor customer service. The managers &amp; the ladies at the front desk were friendly enough, but  unavailable--I think it is because they have too much work &amp; responsibility to adequately do their jobs.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at Ext. Stay 3 different times, for 11 days, in the past 3 months.
+First night--dirty, wrinkled sheets &amp; mattress pad cover which had obviously not been changed--gross. No one available at front desk or housekeeping to change my sheets. I was given 2 fitted double sheets, for my queen sized bed, to change myself. 
+Once when I was waiting (w/several other customers) for someone to come to the front desk, another lady said that she was there to inform management that her bedding was not clean.
+During one stay, I was given 6 different room keys which did not work. 
+Seldom is anyone at the front desk--several customers waiting in line for 15 min. to check in--no one is available to give you dishes, coffee pot, etc. when needed. Customers should not have to return to the front desk to ask for a coffee pot &amp; coffee in a hotel.
+I have been mistakenly overcharged twice--once for being a "no show" &amp; I was recently charged twice for a one-night stay. 
+I have literally spent hrs. on the phone trying to call Ext. Stay on different occasions to make special reservation requests or correct my billing.  
+I have called Ext. Stay in Lone Tree many, many times &amp; seldom will anyone pick up the phone at the front desk or in guest relations. 
+I spent over 2 hours on the phone this morning--no one would answer...I have stayed at Ext. Stay 3 different times, for 11 days, in the past 3 months.First night--dirty, wrinkled sheets &amp; mattress pad cover which had obviously not been changed--gross. No one available at front desk or housekeeping to change my sheets. I was given 2 fitted double sheets, for my queen sized bed, to change myself. Once when I was waiting (w/several other customers) for someone to come to the front desk, another lady said that she was there to inform management that her bedding was not clean.During one stay, I was given 6 different room keys which did not work. Seldom is anyone at the front desk--several customers waiting in line for 15 min. to check in--no one is available to give you dishes, coffee pot, etc. when needed. Customers should not have to return to the front desk to ask for a coffee pot &amp; coffee in a hotel.I have been mistakenly overcharged twice--once for being a "no show" &amp; I was recently charged twice for a one-night stay. I have literally spent hrs. on the phone trying to call Ext. Stay on different occasions to make special reservation requests or correct my billing.  I have called Ext. Stay in Lone Tree many, many times &amp; seldom will anyone pick up the phone at the front desk or in guest relations. I spent over 2 hours on the phone this morning--no one would answer the phone. When no one would answer at the front desk, I called the national reservation line, after a long wait someone finally answered the phone, transferred me back to the Ext. Stay in Lonetree. The phone rang for almost 20 min. before I finally hung up. I called the reservation department again (since no one at the front desk in Lone Tree would answer the phone), was transferred again &amp; once again waited almost 20 minutes for someone to answer the phone, before finally hanging up. I eventually reached one of the managers, was put on hold &amp; hung up 10 minutes later. When I tried to call the front desk back, no one would answer. I called the reservation dept. again &amp; asked them to please give a message to the manager in Lone Tree &amp; have him return my call. He never did.I finally reached another manager (after spending over 2 hrs. on the phone trying to speak with someone who would help me) who agreed that I had been over-charged &amp; he reimbursed the amount in question back to my account.This hotel needs more employees &amp; help for their management team. Extremely poor customer service. The managers &amp; the ladies at the front desk were friendly enough, but  unavailable--I think it is because they have too much work &amp; responsibility to adequately do their jobs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r296367818-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
     <t>296367818</t>
   </si>
   <si>
-    <t>08/06/2015</t>
-  </si>
-  <si>
     <t>Stay is very unhelpful, they really just do not care.</t>
   </si>
   <si>
     <t>I have no idea how the rooms are , because I was a lucky winner of this hotel being over booked. They told me it happens all the time and just walked off, I had to ask for a cancellation receipt so they don't change me for a stay that didn't take place , or a non check in charge. This took a while as the staff walked off and I had to interrupt them to get it. I have had over booking before , they come with traveling, and it doesn't happen often. Every time it has happened the hotel tries to help me with another hotel, or at the very least answer any question I may have , I have never had someone just tell me , sorry we are over booked and just walk around the corner so I can barely see them. Just bad customer service. I ended up at the Marriott around the corner which was 15.00 more and had a bar , a Starbucks, restaurant and a staff that is helpful.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I have no idea how the rooms are , because I was a lucky winner of this hotel being over booked. They told me it happens all the time and just walked off, I had to ask for a cancellation receipt so they don't change me for a stay that didn't take place , or a non check in charge. This took a while as the staff walked off and I had to interrupt them to get it. I have had over booking before , they come with traveling, and it doesn't happen often. Every time it has happened the hotel tries to help me with another hotel, or at the very least answer any question I may have , I have never had someone just tell me , sorry we are over booked and just walk around the corner so I can barely see them. Just bad customer service. I ended up at the Marriott around the corner which was 15.00 more and had a bar , a Starbucks, restaurant and a staff that is helpful.More</t>
   </si>
   <si>
@@ -1299,9 +2032,6 @@
     <t>a friend came into town unexpectedly, found a room here.  A bit out of the way from the house but super convenient to get to, staff was super professional and over the top crazy friendly.  room was uber clean and well appointedMoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Denver - Park Meadows, responded to this reviewResponded August 12, 2015</t>
   </si>
   <si>
@@ -1329,6 +2059,36 @@
     <t>I stayed at this hotel for about a week on the last day I woke up with 30 bite's on my body.Found dead bedbugs in the sheets that I had killed when I was sleeping.Also found some crawling around on the sheets.Tried to talk to the GM I think her name was Dinah.She told me she was new and she wasn't sure what to do YOUR THE GM do your job.The first time I tried to talk to her she was nowhere to be found at 10am in the morning they said she was not in yet.She also said she would contact me back still have not heard from her GREAT GM she is.All I have to say is do not stay at this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r291265706-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>291265706</t>
+  </si>
+  <si>
+    <t>New Staff Leave Much to be Desired</t>
+  </si>
+  <si>
+    <t>I've been staying here for years. Recently I found some new changes which include new staff members and new management. They are rude, condescending, entitled and talk about guests in plain sight. Snickering and laughing about guests' problems as if their problems weren't valid. Where did they find these people? I'll be informing my company to place us at another hotel. Avoid this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r274550550-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>274550550</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>While visiting family near Denver, we opted to stay at Extended Stay for several nights. The price was right and the location was ideal for our purposes. This would be a great place for travelers with pets as they cater to animal owners.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r262564129-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -1389,6 +2149,39 @@
     <t>Ok folks, over the years my wife and I have stayed at some pretty swanky places. On a recent trip to the Denver area we decided to go a different route because of the time we needed to stay at the hotel. We decided to try Extended Stay America for a change. Well, the hotel was clean and neat. The staff members were really nice and friendly... Helpful too. So what we had to change our own sheets and ask for towels on a daily basis. IT'S A DISCOUNT CHAIN!!! So if you're expecting The Omni Berkshire you need to book the Omni. The wife and I had only 1 issue. The beds had mattresses that were hard as plywood. Now, I'm a little spoiled at home because of my Sleep Number mattress but darn, we haven't slept on a bed that bad since the Hotel Felix in Chicago. We left with major backaches. I understand Extended Stay, you're trying to offer a discount hotel so you need to keep cost low. I get it. Just please stop buying those mattresses from the Federal Prison Industries mattress catalog and you'll have a repeat customer.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r208186005-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>208186005</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Cleanliness less then desirable</t>
+  </si>
+  <si>
+    <t>The room was dirty, towels stunk, refrigerator was leaking water and management team was unresponsive to the complaints. The only good thing, staff was friendly and I ended up getting the room for free.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r206975106-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>206975106</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Not worth so called bargain price</t>
+  </si>
+  <si>
+    <t>Room issues - no hangers, phone did not work, kitchen utensils not complete Major Issue:   we paid $10/day extra for daily full room service, yet only had such service 1 of 3 days.  Front desk was unwilling to reduce our billing and was rude to us when we reported problem in the evening and again the next morning.   Will never stay again in one of their properties.   Bargain rates should not mean unacceptable service and attitude of staff!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d1145981-r203651659-Extended_Stay_America_Denver_Park_Meadows-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -1402,9 +2195,6 @@
   </si>
   <si>
     <t>While motels with more amenities are also available, here is a clean friendly, conveniently located motel, that is anxious to please.  What a breath of fresh air.We found a staff that  is actually committed to doing their jobs well, and seeing that customers receive honest value for money spent.  We will now seek out Extended Stay motels on trips.Our sincere thanks.</t>
-  </si>
-  <si>
-    <t>May 2014</t>
   </si>
 </sst>
 </file>
@@ -1941,8 +2731,12 @@
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1953,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1975,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1984,25 +2778,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2014,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2036,7 +2830,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2045,53 +2839,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2107,7 +2891,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -2116,53 +2900,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2178,7 +2952,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2187,42 +2961,28 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -2276,7 +3036,7 @@
         <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2331,31 +3091,41 @@
         <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>106</v>
       </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>107</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2371,58 +3141,62 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="n">
         <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2438,7 +3212,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2447,32 +3221,42 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2520,41 +3304,41 @@
         <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -2570,7 +3354,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2579,53 +3363,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2641,7 +3415,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2650,53 +3424,53 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -2712,7 +3486,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2721,10 +3495,10 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
         <v>156</v>
@@ -2733,41 +3507,41 @@
         <v>157</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
         <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2783,62 +3557,52 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
         <v>165</v>
       </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>166</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>167</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -2854,62 +3618,58 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>170</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>171</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>172</v>
       </c>
-      <c r="L16" t="s">
-        <v>173</v>
-      </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" t="n">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
         <v>174</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>175</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -2925,49 +3685,41 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
         <v>177</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>178</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>179</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>180</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>181</v>
       </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>140</v>
-      </c>
       <c r="O17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -3015,35 +3767,41 @@
         <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
         <v>191</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>192</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -3059,62 +3817,62 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>194</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>195</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>196</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>197</v>
       </c>
-      <c r="L19" t="s">
-        <v>198</v>
-      </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
         <v>199</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>200</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -3130,52 +3888,62 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>202</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
         <v>203</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>204</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
         <v>205</v>
-      </c>
-      <c r="L20" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>208</v>
-      </c>
-      <c r="X20" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21">
@@ -3191,58 +3959,62 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
         <v>211</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" t="s">
-        <v>215</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>207</v>
-      </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -3258,58 +4030,62 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
         <v>219</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>220</v>
-      </c>
-      <c r="J22" t="s">
-        <v>213</v>
-      </c>
-      <c r="K22" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" t="s">
-        <v>222</v>
-      </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
       <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
         <v>4</v>
       </c>
-      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
@@ -3325,58 +4101,62 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s">
         <v>226</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>227</v>
       </c>
-      <c r="J23" t="s">
-        <v>228</v>
-      </c>
-      <c r="K23" t="s">
-        <v>229</v>
-      </c>
-      <c r="L23" t="s">
-        <v>230</v>
-      </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
       <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="n">
         <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -3392,58 +4172,62 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
         <v>234</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>235</v>
       </c>
-      <c r="J24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" t="s">
-        <v>238</v>
-      </c>
       <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
         <v>4</v>
       </c>
-      <c r="N24" t="s">
-        <v>239</v>
-      </c>
-      <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
@@ -3459,7 +4243,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3468,47 +4252,53 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
@@ -3524,52 +4314,62 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
         <v>251</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>252</v>
-      </c>
-      <c r="J26" t="s">
-        <v>253</v>
-      </c>
-      <c r="K26" t="s">
-        <v>254</v>
-      </c>
-      <c r="L26" t="s">
-        <v>255</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>257</v>
-      </c>
-      <c r="X26" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="27">
@@ -3585,7 +4385,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3594,47 +4394,53 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
@@ -3650,7 +4456,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3659,47 +4465,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -3715,7 +4517,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3724,43 +4526,53 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -3776,7 +4588,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3785,39 +4597,51 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
@@ -3833,7 +4657,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3842,33 +4666,31 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3878,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
@@ -3900,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3909,43 +4731,53 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="X32" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
@@ -3961,7 +4793,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3970,47 +4802,43 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="X33" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="Y33" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
@@ -4026,7 +4854,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4035,47 +4863,43 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="X34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
@@ -4091,7 +4915,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4100,49 +4924,43 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="X35" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="Y35" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
@@ -4158,7 +4976,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4167,34 +4985,34 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4203,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
@@ -4225,7 +5043,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4234,32 +5052,34 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>1</v>
@@ -4268,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
@@ -4290,7 +5110,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4299,45 +5119,43 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>341</v>
+      </c>
+      <c r="X38" t="s">
+        <v>342</v>
+      </c>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
@@ -4353,7 +5171,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4362,39 +5180,49 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
       <c r="Y39" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
@@ -4410,7 +5238,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4419,49 +5247,49 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="X40" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="Y40" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41">
@@ -4477,7 +5305,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4486,39 +5314,49 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="J41" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="K41" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" t="s">
+        <v>367</v>
+      </c>
       <c r="Y41" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
@@ -4534,7 +5372,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4543,35 +5381,47 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
@@ -4587,7 +5437,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4596,43 +5446,43 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>382</v>
+      </c>
+      <c r="X43" t="s">
+        <v>383</v>
+      </c>
       <c r="Y43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
@@ -4648,52 +5498,56 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
+        <v>385</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>386</v>
+      </c>
+      <c r="J44" t="s">
+        <v>387</v>
+      </c>
+      <c r="K44" t="s">
+        <v>388</v>
+      </c>
+      <c r="L44" t="s">
+        <v>389</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>390</v>
       </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" t="s">
-        <v>391</v>
-      </c>
-      <c r="J44" t="s">
-        <v>392</v>
-      </c>
-      <c r="K44" t="s">
-        <v>393</v>
-      </c>
-      <c r="L44" t="s">
-        <v>394</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>329</v>
-      </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="X44" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
@@ -4709,58 +5563,52 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J45" t="s">
+        <v>396</v>
+      </c>
+      <c r="K45" t="s">
+        <v>397</v>
+      </c>
+      <c r="L45" t="s">
         <v>398</v>
       </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>399</v>
       </c>
-      <c r="J45" t="s">
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
         <v>400</v>
       </c>
-      <c r="K45" t="s">
+      <c r="X45" t="s">
         <v>401</v>
       </c>
-      <c r="L45" t="s">
+      <c r="Y45" t="s">
         <v>402</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" t="s">
-        <v>329</v>
-      </c>
-      <c r="O45" t="s">
-        <v>149</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>2</v>
-      </c>
-      <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>2</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
-        <v>403</v>
-      </c>
-      <c r="X45" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="46">
@@ -4776,54 +5624,56 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" t="s">
         <v>406</v>
       </c>
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>407</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
         <v>408</v>
       </c>
-      <c r="K46" t="s">
-        <v>409</v>
-      </c>
-      <c r="L46" t="s">
-        <v>410</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>411</v>
-      </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="X46" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y46" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
@@ -4839,54 +5689,56 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>413</v>
+      </c>
+      <c r="J47" t="s">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s">
         <v>415</v>
       </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>416</v>
       </c>
-      <c r="J47" t="s">
-        <v>417</v>
-      </c>
-      <c r="K47" t="s">
-        <v>418</v>
-      </c>
-      <c r="L47" t="s">
-        <v>419</v>
-      </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>420</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="X47" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
@@ -4902,56 +5754,56 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>421</v>
+      </c>
+      <c r="J48" t="s">
         <v>422</v>
       </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>423</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>424</v>
       </c>
-      <c r="K48" t="s">
-        <v>425</v>
-      </c>
-      <c r="L48" t="s">
-        <v>426</v>
-      </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s">
-        <v>420</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="X48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
@@ -4967,42 +5819,56 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>429</v>
+      </c>
+      <c r="J49" t="s">
+        <v>430</v>
+      </c>
+      <c r="K49" t="s">
         <v>431</v>
       </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>432</v>
       </c>
-      <c r="J49" t="s">
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
         <v>433</v>
       </c>
-      <c r="K49" t="s">
-        <v>434</v>
-      </c>
-      <c r="L49" t="s">
-        <v>435</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>434</v>
+      </c>
+      <c r="X49" t="s">
+        <v>435</v>
+      </c>
       <c r="Y49" t="s">
         <v>436</v>
       </c>
@@ -5041,31 +5907,31 @@
         <v>441</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>434</v>
+      </c>
+      <c r="X50" t="s">
+        <v>435</v>
+      </c>
       <c r="Y50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
@@ -5081,52 +5947,46 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
         <v>444</v>
       </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>445</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>446</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>447</v>
       </c>
-      <c r="L51" t="s">
-        <v>448</v>
-      </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
-        <v>449</v>
-      </c>
-      <c r="O51" t="s">
-        <v>79</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
       <c r="Y51" t="s">
         <v>448</v>
       </c>
@@ -5144,39 +6004,39 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
         <v>450</v>
       </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" t="s">
-        <v>46</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>451</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>452</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>453</v>
       </c>
-      <c r="L52" t="s">
-        <v>454</v>
-      </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="s"/>
       <c r="S52" t="n">
         <v>5</v>
@@ -5188,8 +6048,12 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
       <c r="Y52" t="s">
         <v>456</v>
       </c>
@@ -5231,24 +6095,2351 @@
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>454</v>
+      </c>
+      <c r="X53" t="s">
+        <v>455</v>
+      </c>
       <c r="Y53" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>464</v>
+      </c>
+      <c r="J54" t="s">
+        <v>465</v>
+      </c>
+      <c r="K54" t="s">
+        <v>466</v>
+      </c>
+      <c r="L54" t="s">
+        <v>467</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>468</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>454</v>
+      </c>
+      <c r="X54" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>470</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" t="s">
+        <v>472</v>
+      </c>
+      <c r="K55" t="s">
+        <v>473</v>
+      </c>
+      <c r="L55" t="s">
+        <v>474</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>468</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>475</v>
+      </c>
+      <c r="X55" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>479</v>
+      </c>
+      <c r="J56" t="s">
+        <v>480</v>
+      </c>
+      <c r="K56" t="s">
+        <v>481</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>483</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>484</v>
+      </c>
+      <c r="X56" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>488</v>
+      </c>
+      <c r="J57" t="s">
+        <v>489</v>
+      </c>
+      <c r="K57" t="s">
+        <v>490</v>
+      </c>
+      <c r="L57" t="s">
+        <v>491</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>483</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>484</v>
+      </c>
+      <c r="X57" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>494</v>
+      </c>
+      <c r="J58" t="s">
+        <v>495</v>
+      </c>
+      <c r="K58" t="s">
+        <v>496</v>
+      </c>
+      <c r="L58" t="s">
+        <v>497</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>498</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>499</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>500</v>
+      </c>
+      <c r="J59" t="s">
+        <v>501</v>
+      </c>
+      <c r="K59" t="s">
+        <v>502</v>
+      </c>
+      <c r="L59" t="s">
+        <v>503</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>504</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>505</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>506</v>
+      </c>
+      <c r="J60" t="s">
+        <v>507</v>
+      </c>
+      <c r="K60" t="s">
+        <v>508</v>
+      </c>
+      <c r="L60" t="s">
+        <v>509</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>510</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>511</v>
+      </c>
+      <c r="X60" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>514</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>515</v>
+      </c>
+      <c r="J61" t="s">
+        <v>516</v>
+      </c>
+      <c r="K61" t="s">
+        <v>517</v>
+      </c>
+      <c r="L61" t="s">
+        <v>518</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>519</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>520</v>
+      </c>
+      <c r="X61" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>524</v>
+      </c>
+      <c r="J62" t="s">
+        <v>525</v>
+      </c>
+      <c r="K62" t="s">
+        <v>526</v>
+      </c>
+      <c r="L62" t="s">
+        <v>527</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>519</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>528</v>
+      </c>
+      <c r="X62" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>531</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>532</v>
+      </c>
+      <c r="J63" t="s">
+        <v>533</v>
+      </c>
+      <c r="K63" t="s">
+        <v>534</v>
+      </c>
+      <c r="L63" t="s">
+        <v>535</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>519</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>537</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J64" t="s">
+        <v>539</v>
+      </c>
+      <c r="K64" t="s">
+        <v>540</v>
+      </c>
+      <c r="L64" t="s">
+        <v>541</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>542</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>543</v>
+      </c>
+      <c r="X64" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>546</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>547</v>
+      </c>
+      <c r="J65" t="s">
+        <v>548</v>
+      </c>
+      <c r="K65" t="s">
+        <v>549</v>
+      </c>
+      <c r="L65" t="s">
+        <v>550</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>551</v>
+      </c>
+      <c r="O65" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>553</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>554</v>
+      </c>
+      <c r="J66" t="s">
+        <v>555</v>
+      </c>
+      <c r="K66" t="s">
+        <v>556</v>
+      </c>
+      <c r="L66" t="s">
+        <v>557</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>558</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>560</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>561</v>
+      </c>
+      <c r="J67" t="s">
+        <v>562</v>
+      </c>
+      <c r="K67" t="s">
+        <v>563</v>
+      </c>
+      <c r="L67" t="s">
+        <v>564</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>565</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>566</v>
+      </c>
+      <c r="X67" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>569</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>570</v>
+      </c>
+      <c r="J68" t="s">
+        <v>571</v>
+      </c>
+      <c r="K68" t="s">
+        <v>572</v>
+      </c>
+      <c r="L68" t="s">
+        <v>573</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>565</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>566</v>
+      </c>
+      <c r="X68" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>575</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>576</v>
+      </c>
+      <c r="J69" t="s">
+        <v>577</v>
+      </c>
+      <c r="K69" t="s">
+        <v>578</v>
+      </c>
+      <c r="L69" t="s">
+        <v>579</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>566</v>
+      </c>
+      <c r="X69" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>581</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>582</v>
+      </c>
+      <c r="J70" t="s">
+        <v>583</v>
+      </c>
+      <c r="K70" t="s">
+        <v>584</v>
+      </c>
+      <c r="L70" t="s">
+        <v>585</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>586</v>
+      </c>
+      <c r="O70" t="s">
+        <v>115</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>588</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>589</v>
+      </c>
+      <c r="J71" t="s">
+        <v>590</v>
+      </c>
+      <c r="K71" t="s">
+        <v>591</v>
+      </c>
+      <c r="L71" t="s">
+        <v>592</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>593</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>594</v>
+      </c>
+      <c r="J72" t="s">
+        <v>590</v>
+      </c>
+      <c r="K72" t="s">
+        <v>595</v>
+      </c>
+      <c r="L72" t="s">
+        <v>596</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>597</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>598</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>599</v>
+      </c>
+      <c r="J73" t="s">
+        <v>600</v>
+      </c>
+      <c r="K73" t="s">
+        <v>601</v>
+      </c>
+      <c r="L73" t="s">
+        <v>602</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>603</v>
+      </c>
+      <c r="O73" t="s">
+        <v>604</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>605</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>606</v>
+      </c>
+      <c r="J74" t="s">
+        <v>607</v>
+      </c>
+      <c r="K74" t="s">
+        <v>608</v>
+      </c>
+      <c r="L74" t="s">
+        <v>609</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>510</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>610</v>
+      </c>
+      <c r="X74" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>613</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>614</v>
+      </c>
+      <c r="J75" t="s">
+        <v>615</v>
+      </c>
+      <c r="K75" t="s">
+        <v>616</v>
+      </c>
+      <c r="L75" t="s">
+        <v>617</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>510</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>618</v>
+      </c>
+      <c r="X75" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>621</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>622</v>
+      </c>
+      <c r="J76" t="s">
+        <v>623</v>
+      </c>
+      <c r="K76" t="s">
+        <v>624</v>
+      </c>
+      <c r="L76" t="s">
+        <v>625</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>510</v>
+      </c>
+      <c r="O76" t="s">
+        <v>115</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>626</v>
+      </c>
+      <c r="X76" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>629</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>630</v>
+      </c>
+      <c r="J77" t="s">
+        <v>631</v>
+      </c>
+      <c r="K77" t="s">
+        <v>632</v>
+      </c>
+      <c r="L77" t="s">
+        <v>633</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>603</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>634</v>
+      </c>
+      <c r="X77" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>637</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>638</v>
+      </c>
+      <c r="J78" t="s">
+        <v>639</v>
+      </c>
+      <c r="K78" t="s">
+        <v>640</v>
+      </c>
+      <c r="L78" t="s">
+        <v>641</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>603</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>642</v>
+      </c>
+      <c r="X78" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>645</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>646</v>
+      </c>
+      <c r="J79" t="s">
+        <v>647</v>
+      </c>
+      <c r="K79" t="s">
+        <v>648</v>
+      </c>
+      <c r="L79" t="s">
+        <v>649</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>650</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>634</v>
+      </c>
+      <c r="X79" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>652</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>653</v>
+      </c>
+      <c r="J80" t="s">
+        <v>647</v>
+      </c>
+      <c r="K80" t="s">
+        <v>654</v>
+      </c>
+      <c r="L80" t="s">
+        <v>655</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>603</v>
+      </c>
+      <c r="O80" t="s">
+        <v>604</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>634</v>
+      </c>
+      <c r="X80" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>657</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>658</v>
+      </c>
+      <c r="J81" t="s">
+        <v>659</v>
+      </c>
+      <c r="K81" t="s">
+        <v>660</v>
+      </c>
+      <c r="L81" t="s">
+        <v>661</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>650</v>
+      </c>
+      <c r="O81" t="s">
+        <v>604</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>662</v>
+      </c>
+      <c r="X81" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>665</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>666</v>
+      </c>
+      <c r="J82" t="s">
+        <v>667</v>
+      </c>
+      <c r="K82" t="s">
+        <v>668</v>
+      </c>
+      <c r="L82" t="s">
+        <v>669</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>671</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>672</v>
+      </c>
+      <c r="J83" t="s">
+        <v>667</v>
+      </c>
+      <c r="K83" t="s">
+        <v>673</v>
+      </c>
+      <c r="L83" t="s">
+        <v>674</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>650</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>675</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>676</v>
+      </c>
+      <c r="J84" t="s">
+        <v>677</v>
+      </c>
+      <c r="K84" t="s">
+        <v>678</v>
+      </c>
+      <c r="L84" t="s">
+        <v>679</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>680</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>681</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>682</v>
+      </c>
+      <c r="J85" t="s">
+        <v>683</v>
+      </c>
+      <c r="K85" t="s">
+        <v>684</v>
+      </c>
+      <c r="L85" t="s">
+        <v>685</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>686</v>
+      </c>
+      <c r="O85" t="s">
+        <v>115</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>688</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>689</v>
+      </c>
+      <c r="J86" t="s">
+        <v>690</v>
+      </c>
+      <c r="K86" t="s">
+        <v>691</v>
+      </c>
+      <c r="L86" t="s">
+        <v>692</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>693</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>694</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>695</v>
+      </c>
+      <c r="J87" t="s">
+        <v>696</v>
+      </c>
+      <c r="K87" t="s">
+        <v>697</v>
+      </c>
+      <c r="L87" t="s">
+        <v>698</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>699</v>
+      </c>
+      <c r="O87" t="s">
+        <v>115</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>701</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>702</v>
+      </c>
+      <c r="J88" t="s">
+        <v>703</v>
+      </c>
+      <c r="K88" t="s">
+        <v>704</v>
+      </c>
+      <c r="L88" t="s">
+        <v>705</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>706</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>707</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>708</v>
+      </c>
+      <c r="J89" t="s">
+        <v>709</v>
+      </c>
+      <c r="K89" t="s">
+        <v>710</v>
+      </c>
+      <c r="L89" t="s">
+        <v>711</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>706</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>712</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>713</v>
+      </c>
+      <c r="J90" t="s">
+        <v>714</v>
+      </c>
+      <c r="K90" t="s">
+        <v>715</v>
+      </c>
+      <c r="L90" t="s">
+        <v>716</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>706</v>
+      </c>
+      <c r="O90" t="s">
+        <v>115</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
